--- a/exp2/case03/report/motivation/attention/MeasurementModel.xlsx
+++ b/exp2/case03/report/motivation/attention/MeasurementModel.xlsx
@@ -4598,25 +4598,25 @@
         <v>31</v>
       </c>
       <c r="B33" t="n" s="273">
-        <v>0.9608256925620914</v>
+        <v>0.9671138891831781</v>
       </c>
       <c r="C33" t="n" s="274">
-        <v>-0.12185404610554162</v>
+        <v>-0.09099795014767882</v>
       </c>
       <c r="D33" t="n" s="275">
-        <v>0.9030146102221674</v>
+        <v>0.9274942198452398</v>
       </c>
       <c r="E33" t="n" s="276">
         <v>1.0</v>
       </c>
       <c r="F33" t="n" s="277">
-        <v>0.9693477320011352</v>
+        <v>0.9763295184474029</v>
       </c>
       <c r="G33" t="n" s="278">
-        <v>-0.1100069381484669</v>
+        <v>-0.07620044202141216</v>
       </c>
       <c r="H33" t="n" s="279">
-        <v>0.9124038724666564</v>
+        <v>0.9392596310313256</v>
       </c>
       <c r="I33" t="n" s="280">
         <v>1.0</v>
@@ -4627,25 +4627,25 @@
         <v>32</v>
       </c>
       <c r="B34" t="n" s="273">
-        <v>0.7656779979459888</v>
+        <v>0.7664355098464104</v>
       </c>
       <c r="C34" t="n" s="274">
-        <v>-1.0428779393927068</v>
+        <v>-1.0359792543138695</v>
       </c>
       <c r="D34" t="n" s="275">
-        <v>0.2970048280756173</v>
+        <v>0.3002118210435647</v>
       </c>
       <c r="E34" t="n" s="276">
         <v>1.0</v>
       </c>
       <c r="F34" t="n" s="277">
-        <v>0.8022294905720919</v>
+        <v>0.7976913903735041</v>
       </c>
       <c r="G34" t="n" s="278">
-        <v>-0.9997041578870451</v>
+        <v>-1.0264797970038195</v>
       </c>
       <c r="H34" t="n" s="279">
-        <v>0.31745369930164</v>
+        <v>0.30466548175720154</v>
       </c>
       <c r="I34" t="n" s="280">
         <v>1.0</v>
@@ -4656,25 +4656,25 @@
         <v>33</v>
       </c>
       <c r="B35" t="n" s="273">
-        <v>0.7817177894337033</v>
+        <v>0.7900992218974096</v>
       </c>
       <c r="C35" t="n" s="274">
-        <v>-0.993089777757642</v>
+        <v>-0.9525732732209503</v>
       </c>
       <c r="D35" t="n" s="275">
-        <v>0.32066620512152455</v>
+        <v>0.34080632421888035</v>
       </c>
       <c r="E35" t="n" s="276">
         <v>1.0</v>
       </c>
       <c r="F35" t="n" s="277">
-        <v>0.8138639847842523</v>
+        <v>0.8256847857522598</v>
       </c>
       <c r="G35" t="n" s="278">
-        <v>-0.9402681733996655</v>
+        <v>-0.875695202731917</v>
       </c>
       <c r="H35" t="n" s="279">
-        <v>0.347080020457516</v>
+        <v>0.38119575400622935</v>
       </c>
       <c r="I35" t="n" s="280">
         <v>1.0</v>
@@ -4685,28 +4685,28 @@
         <v>34</v>
       </c>
       <c r="B36" t="n" s="273">
-        <v>1.3799443684514148</v>
+        <v>1.3625822262509124</v>
       </c>
       <c r="C36" t="n" s="274">
-        <v>1.5678367261750228</v>
+        <v>1.5165288097214866</v>
       </c>
       <c r="D36" t="n" s="275">
-        <v>0.11691924145805575</v>
+        <v>0.12938569117661755</v>
       </c>
       <c r="E36" t="n" s="276">
-        <v>0.8184346902063903</v>
+        <v>0.9056998382363228</v>
       </c>
       <c r="F36" t="n" s="277">
-        <v>1.4381112272307823</v>
+        <v>1.4213845792577826</v>
       </c>
       <c r="G36" t="n" s="278">
-        <v>1.9585165796916746</v>
+        <v>1.9004365111576846</v>
       </c>
       <c r="H36" t="n" s="279">
-        <v>0.05016942750322696</v>
+        <v>0.057375859311595515</v>
       </c>
       <c r="I36" t="n" s="280">
-        <v>0.35118599252258875</v>
+        <v>0.4016310151811686</v>
       </c>
     </row>
     <row r="37">
@@ -4714,25 +4714,25 @@
         <v>35</v>
       </c>
       <c r="B37" t="n" s="273">
-        <v>0.9807262575188614</v>
+        <v>0.9795882496791084</v>
       </c>
       <c r="C37" t="n" s="274">
-        <v>-0.05301858053341958</v>
+        <v>-0.05180868291482261</v>
       </c>
       <c r="D37" t="n" s="275">
-        <v>0.9577171034088803</v>
+        <v>0.9586811368793526</v>
       </c>
       <c r="E37" t="n" s="276">
         <v>1.0</v>
       </c>
       <c r="F37" t="n" s="277">
-        <v>0.9452594295729349</v>
+        <v>0.9543596169498801</v>
       </c>
       <c r="G37" t="n" s="278">
-        <v>-0.23929389808764548</v>
+        <v>-0.1894397498731145</v>
       </c>
       <c r="H37" t="n" s="279">
-        <v>0.8108776966098221</v>
+        <v>0.8497481725646348</v>
       </c>
       <c r="I37" t="n" s="280">
         <v>1.0</v>
@@ -4743,28 +4743,28 @@
         <v>58</v>
       </c>
       <c r="B38" t="n" s="273">
-        <v>1.1640609949086198</v>
+        <v>1.062056239712155</v>
       </c>
       <c r="C38" t="n" s="274">
-        <v>13.935027865643763</v>
+        <v>14.014455372042939</v>
       </c>
       <c r="D38" t="n" s="275">
-        <v>3.8804891535877617E-44</v>
+        <v>1.2717010894402588E-44</v>
       </c>
       <c r="E38" t="n" s="276">
-        <v>3.4924402382289855E-43</v>
+        <v>1.1445309804962329E-43</v>
       </c>
       <c r="F38" t="n" s="277">
-        <v>1.664792640554558</v>
+        <v>1.6265345062141163</v>
       </c>
       <c r="G38" t="n" s="278">
-        <v>2.1975885675276836</v>
+        <v>2.0690466148191864</v>
       </c>
       <c r="H38" t="n" s="279">
-        <v>0.027978438661370047</v>
+        <v>0.038541712610052424</v>
       </c>
       <c r="I38" t="n" s="280">
-        <v>0.22382750929096037</v>
+        <v>0.3083337008804194</v>
       </c>
     </row>
     <row r="39">
@@ -4772,28 +4772,28 @@
         <v>59</v>
       </c>
       <c r="B39" t="n" s="273">
-        <v>1.4619899122585565</v>
+        <v>1.4139622843394968</v>
       </c>
       <c r="C39" t="n" s="274">
-        <v>0.856953784463349</v>
+        <v>0.8377658286290536</v>
       </c>
       <c r="D39" t="n" s="275">
-        <v>0.39147042651562863</v>
+        <v>0.40216223389284034</v>
       </c>
       <c r="E39" t="n" s="276">
         <v>1.0</v>
       </c>
       <c r="F39" t="n" s="277">
-        <v>1.5331310736702197</v>
+        <v>1.521970161390382</v>
       </c>
       <c r="G39" t="n" s="278">
-        <v>3.6982187034192777</v>
+        <v>3.631771497394388</v>
       </c>
       <c r="H39" t="n" s="279">
-        <v>2.1711778340202252E-4</v>
+        <v>2.814823115464273E-4</v>
       </c>
       <c r="I39" t="n" s="280">
-        <v>0.002171177834020225</v>
+        <v>0.002814823115464273</v>
       </c>
     </row>
     <row r="40">
@@ -4801,25 +4801,25 @@
         <v>60</v>
       </c>
       <c r="B40" t="n" s="273">
-        <v>1.1006359136088097</v>
+        <v>1.076087277215562</v>
       </c>
       <c r="C40" t="n" s="274">
-        <v>0.7304339383912493</v>
+        <v>0.7122152503164044</v>
       </c>
       <c r="D40" t="n" s="275">
-        <v>0.46512497968422317</v>
+        <v>0.4763314947621274</v>
       </c>
       <c r="E40" t="n" s="276">
         <v>1.0</v>
       </c>
       <c r="F40" t="n" s="277">
-        <v>1.124735150707271</v>
+        <v>1.1159556704661209</v>
       </c>
       <c r="G40" t="n" s="278">
-        <v>0.9804077320060562</v>
+        <v>0.9646806039582434</v>
       </c>
       <c r="H40" t="n" s="279">
-        <v>0.32688489460852005</v>
+        <v>0.33470481310609534</v>
       </c>
       <c r="I40" t="n" s="280">
         <v>1.0</v>
@@ -4830,28 +4830,28 @@
         <v>61</v>
       </c>
       <c r="B41" t="n" s="273">
-        <v>1.1786498142723154</v>
+        <v>1.1668571653012678</v>
       </c>
       <c r="C41" t="n" s="274">
-        <v>4.185440731182603</v>
+        <v>3.9494754658988165</v>
       </c>
       <c r="D41" t="n" s="275">
-        <v>2.8461332708475266E-5</v>
+        <v>7.832263784256856E-5</v>
       </c>
       <c r="E41" t="n" s="276">
-        <v>2.2769066166780213E-4</v>
+        <v>6.265811027405485E-4</v>
       </c>
       <c r="F41" t="n" s="277">
-        <v>1.2842051516039663</v>
+        <v>1.2595825177034</v>
       </c>
       <c r="G41" t="n" s="278">
-        <v>2.5733168681608722</v>
+        <v>2.3664387524331634</v>
       </c>
       <c r="H41" t="n" s="279">
-        <v>0.010072893879377483</v>
+        <v>0.01796014569513867</v>
       </c>
       <c r="I41" t="n" s="280">
-        <v>0.09065604491439735</v>
+        <v>0.16164131125624803</v>
       </c>
     </row>
     <row r="42">
@@ -4859,10 +4859,10 @@
         <v>62</v>
       </c>
       <c r="B42" t="n" s="273">
-        <v>0.9739643353625448</v>
+        <v>1.026139269896127</v>
       </c>
       <c r="C42" t="n" s="274">
-        <v>122.08381970853654</v>
+        <v>109.65635931339207</v>
       </c>
       <c r="D42" t="n" s="275">
         <v>0.0</v>
@@ -4871,16 +4871,16 @@
         <v>0.0</v>
       </c>
       <c r="F42" t="n" s="277">
-        <v>1.4619439124155038</v>
+        <v>1.5381868251712103</v>
       </c>
       <c r="G42" t="n" s="278">
-        <v>5.310793313633997</v>
+        <v>5.978410901492728</v>
       </c>
       <c r="H42" t="n" s="279">
-        <v>1.0914906148324712E-7</v>
+        <v>2.253247958492748E-9</v>
       </c>
       <c r="I42" t="n" s="280">
-        <v>1.2006396763157183E-6</v>
+        <v>2.478572754342023E-8</v>
       </c>
     </row>
     <row r="43">
@@ -4888,10 +4888,10 @@
         <v>63</v>
       </c>
       <c r="B43" t="n" s="273">
-        <v>0.8980482166408296</v>
+        <v>0.9389805196729271</v>
       </c>
       <c r="C43" t="n" s="274">
-        <v>5779.157902120136</v>
+        <v>4902.4462785625765</v>
       </c>
       <c r="D43" t="n" s="275">
         <v>0.0</v>
@@ -4900,13 +4900,13 @@
         <v>0.0</v>
       </c>
       <c r="F43" t="n" s="277">
-        <v>1.1240202422173824</v>
+        <v>1.1711665427166746</v>
       </c>
       <c r="G43" t="n" s="278">
-        <v>0.9471646240793121</v>
+        <v>1.2791059200248978</v>
       </c>
       <c r="H43" t="n" s="279">
-        <v>0.34355489863610106</v>
+        <v>0.20085975919580862</v>
       </c>
       <c r="I43" t="n" s="280">
         <v>1.0</v>

--- a/exp2/case03/report/motivation/attention/MeasurementModel.xlsx
+++ b/exp2/case03/report/motivation/attention/MeasurementModel.xlsx
@@ -2455,13 +2455,13 @@
     </row>
     <row r="11">
       <c r="A11" t="n" s="56">
-        <v>0.11429243536076013</v>
+        <v>0.1142924353607601</v>
       </c>
       <c r="B11" t="n" s="57">
-        <v>0.3013512251376912</v>
+        <v>0.30135122513769147</v>
       </c>
       <c r="C11" t="n" s="58">
-        <v>0.36813846314067816</v>
+        <v>0.3681384631406761</v>
       </c>
     </row>
     <row r="12">
@@ -2492,7 +2492,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n" s="77">
-        <v>159.50068468089046</v>
+        <v>159.50068468089123</v>
       </c>
       <c r="B16" t="n" s="78">
         <v>10.0</v>
@@ -2529,13 +2529,13 @@
     </row>
     <row r="21">
       <c r="A21" t="n" s="98">
-        <v>25.665118033877132</v>
+        <v>25.66511803387722</v>
       </c>
       <c r="B21" t="n" s="99">
-        <v>0.03940327874145585</v>
+        <v>0.03940327874145606</v>
       </c>
       <c r="C21" t="n" s="100">
-        <v>0.055774071974295736</v>
+        <v>0.055774071974295916</v>
       </c>
     </row>
     <row r="22">
@@ -2596,10 +2596,10 @@
         <v>49.0</v>
       </c>
       <c r="F26" t="n" s="124">
-        <v>37.112530551084234</v>
+        <v>37.11253055108425</v>
       </c>
       <c r="G26" t="n" s="125">
-        <v>0.893550966985359</v>
+        <v>0.8935509669853584</v>
       </c>
       <c r="H26" t="n" s="126">
         <v>1.0</v>
@@ -2622,7 +2622,7 @@
         <v>49.0</v>
       </c>
       <c r="F27" t="n" s="124">
-        <v>29.684241494179624</v>
+        <v>29.684241494179627</v>
       </c>
       <c r="G27" t="n" s="125">
         <v>0.9867862917407512</v>
@@ -2648,10 +2648,10 @@
         <v>49.0</v>
       </c>
       <c r="F28" t="n" s="124">
-        <v>44.82786891196793</v>
+        <v>44.82786891196803</v>
       </c>
       <c r="G28" t="n" s="125">
-        <v>0.642871581707845</v>
+        <v>0.642871581707841</v>
       </c>
       <c r="H28" t="n" s="126">
         <v>1.0</v>
@@ -2674,7 +2674,7 @@
         <v>49.0</v>
       </c>
       <c r="F29" t="n" s="124">
-        <v>159.50068468089046</v>
+        <v>159.50068468089123</v>
       </c>
       <c r="G29" t="n" s="125">
         <v>1.270095140171179E-13</v>
@@ -2726,10 +2726,10 @@
         <v>49.0</v>
       </c>
       <c r="F31" t="n" s="124">
-        <v>36.58608737100103</v>
+        <v>36.58608737100123</v>
       </c>
       <c r="G31" t="n" s="125">
-        <v>0.9049050114444518</v>
+        <v>0.9049050114444473</v>
       </c>
       <c r="H31" t="n" s="126">
         <v>1.0</v>
@@ -2752,10 +2752,10 @@
         <v>49.0</v>
       </c>
       <c r="F32" t="n" s="124">
-        <v>30.659443018978447</v>
+        <v>30.6594430189785</v>
       </c>
       <c r="G32" t="n" s="125">
-        <v>0.9813747051673088</v>
+        <v>0.9813747051673085</v>
       </c>
       <c r="H32" t="n" s="126">
         <v>1.0</v>
@@ -2778,13 +2778,13 @@
         <v>49.0</v>
       </c>
       <c r="F33" t="n" s="124">
-        <v>68.72235089232775</v>
+        <v>68.72235089232817</v>
       </c>
       <c r="G33" t="n" s="125">
-        <v>0.03291138485164047</v>
+        <v>0.032911384851637915</v>
       </c>
       <c r="H33" t="n" s="126">
-        <v>0.2962024636647642</v>
+        <v>0.29620246366474123</v>
       </c>
     </row>
     <row r="34">
@@ -2804,10 +2804,10 @@
         <v>49.0</v>
       </c>
       <c r="F34" t="n" s="124">
-        <v>44.742763853802074</v>
+        <v>44.74276385380212</v>
       </c>
       <c r="G34" t="n" s="125">
-        <v>0.6462683081241593</v>
+        <v>0.6462683081241578</v>
       </c>
       <c r="H34" t="n" s="126">
         <v>1.0</v>
@@ -2830,10 +2830,10 @@
         <v>49.0</v>
       </c>
       <c r="F35" t="n" s="124">
-        <v>36.41546355453269</v>
+        <v>36.4154635545328</v>
       </c>
       <c r="G35" t="n" s="125">
-        <v>0.9084086924516407</v>
+        <v>0.9084086924516384</v>
       </c>
       <c r="H35" t="n" s="126">
         <v>1.0</v>
@@ -2873,10 +2873,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n" s="145">
-        <v>0.2977695485110452</v>
+        <v>0.2977695485110461</v>
       </c>
       <c r="B40" t="n" s="146">
-        <v>0.36066255838633055</v>
+        <v>0.36066255838632966</v>
       </c>
       <c r="C40" t="n" s="147">
         <v>0.2851987159192779</v>
@@ -2885,21 +2885,21 @@
         <v>0.2615002418294603</v>
       </c>
       <c r="E40" t="n" s="149">
-        <v>0.2291771952376278</v>
+        <v>0.2291771952376287</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n" s="145">
-        <v>0.5678784544097519</v>
+        <v>0.5678784544097537</v>
       </c>
       <c r="B41" t="n" s="146">
-        <v>0.7507180868211085</v>
+        <v>0.7507180868211112</v>
       </c>
       <c r="C41" t="n" s="147">
-        <v>-0.4721441446447274</v>
+        <v>-0.4721441446447292</v>
       </c>
       <c r="D41" t="n" s="148">
-        <v>-0.55119814406227</v>
+        <v>-0.5511981440622673</v>
       </c>
       <c r="E41" t="n" s="149">
         <v>0.33259407451976486</v>
@@ -2907,16 +2907,16 @@
     </row>
     <row r="42">
       <c r="A42" t="n" s="145">
-        <v>0.5678784544097519</v>
+        <v>0.5678784544097537</v>
       </c>
       <c r="B42" t="n" s="146">
-        <v>0.7507180868211085</v>
+        <v>0.7507180868211112</v>
       </c>
       <c r="C42" t="n" s="147">
-        <v>-0.4721441446447274</v>
+        <v>-0.4721441446447292</v>
       </c>
       <c r="D42" t="n" s="148">
-        <v>-0.55119814406227</v>
+        <v>-0.5511981440622673</v>
       </c>
       <c r="E42" t="n" s="149">
         <v>0.33259407451976486</v>
@@ -2927,33 +2927,33 @@
         <v>-0.24408945566513385</v>
       </c>
       <c r="B43" t="n" s="146">
-        <v>-0.06031456762750853</v>
+        <v>-0.06031456762750764</v>
       </c>
       <c r="C43" t="n" s="147">
-        <v>-0.28476678344308404</v>
+        <v>-0.2847667834430849</v>
       </c>
       <c r="D43" t="n" s="148">
         <v>0.6343663430050501</v>
       </c>
       <c r="E43" t="n" s="149">
-        <v>0.5141756110358822</v>
+        <v>0.5141756110358813</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n" s="145">
-        <v>0.4988287156595588</v>
+        <v>0.49882871565956144</v>
       </c>
       <c r="B44" t="n" s="146">
-        <v>-0.32863618963780805</v>
+        <v>-0.3286361896378063</v>
       </c>
       <c r="C44" t="n" s="147">
         <v>-0.5394787048967444</v>
       </c>
       <c r="D44" t="n" s="148">
-        <v>1.3837866181761092</v>
+        <v>1.38378661817611</v>
       </c>
       <c r="E44" t="n" s="149">
-        <v>-0.7325072081367532</v>
+        <v>-0.7325072081367523</v>
       </c>
     </row>
     <row r="45">
@@ -2961,21 +2961,21 @@
         <v>-0.24408945566513385</v>
       </c>
       <c r="B45" t="n" s="146">
-        <v>-0.06031456762750853</v>
+        <v>-0.06031456762750764</v>
       </c>
       <c r="C45" t="n" s="147">
-        <v>-0.28476678344308404</v>
+        <v>-0.2847667834430849</v>
       </c>
       <c r="D45" t="n" s="148">
         <v>0.6343663430050501</v>
       </c>
       <c r="E45" t="n" s="149">
-        <v>0.5141756110358822</v>
+        <v>0.5141756110358813</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n" s="145">
-        <v>0.4988287156595588</v>
+        <v>0.49882871565956144</v>
       </c>
       <c r="B46" t="n" s="146">
         <v>0.671363810362192</v>
@@ -2984,112 +2984,112 @@
         <v>0.4605212951032547</v>
       </c>
       <c r="D46" t="n" s="148">
-        <v>-0.6162133818238908</v>
+        <v>-0.61621338182389</v>
       </c>
       <c r="E46" t="n" s="149">
-        <v>-0.7325072081367532</v>
+        <v>-0.7325072081367541</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n" s="145">
-        <v>0.4349291180940176</v>
+        <v>0.4349291180940189</v>
       </c>
       <c r="B47" t="n" s="146">
-        <v>0.6547547544617824</v>
+        <v>0.6547547544617816</v>
       </c>
       <c r="C47" t="n" s="147">
-        <v>0.3883195143642193</v>
+        <v>0.3883195143642202</v>
       </c>
       <c r="D47" t="n" s="148">
-        <v>-1.7023486606562175</v>
+        <v>-1.7023486606562188</v>
       </c>
       <c r="E47" t="n" s="149">
-        <v>0.1671073401221399</v>
+        <v>0.16710734012213857</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n" s="145">
-        <v>-0.1312810114943268</v>
+        <v>-0.13128101149432592</v>
       </c>
       <c r="B48" t="n" s="146">
-        <v>0.049714092068198656</v>
+        <v>0.049714092068197324</v>
       </c>
       <c r="C48" t="n" s="147">
-        <v>-0.17029201257038373</v>
+        <v>-0.17029201257038284</v>
       </c>
       <c r="D48" t="n" s="148">
         <v>0.7526875713517596</v>
       </c>
       <c r="E48" t="n" s="149">
-        <v>-0.36166907809176596</v>
+        <v>-0.36166907809176685</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n" s="145">
-        <v>-0.23321364408184975</v>
+        <v>-0.2332136440818493</v>
       </c>
       <c r="B49" t="n" s="146">
         <v>-0.035880248780478574</v>
       </c>
       <c r="C49" t="n" s="147">
-        <v>-0.27986397317854417</v>
+        <v>-0.2798639731785433</v>
       </c>
       <c r="D49" t="n" s="148">
         <v>-0.37573189279862307</v>
       </c>
       <c r="E49" t="n" s="149">
-        <v>0.47431353978906055</v>
+        <v>0.4743135397890601</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n" s="145">
-        <v>0.4349291180940176</v>
+        <v>0.4349291180940189</v>
       </c>
       <c r="B50" t="n" s="146">
-        <v>0.6547547544617824</v>
+        <v>0.6547547544617816</v>
       </c>
       <c r="C50" t="n" s="147">
-        <v>0.3883195143642193</v>
+        <v>0.3883195143642202</v>
       </c>
       <c r="D50" t="n" s="148">
-        <v>-1.7023486606562175</v>
+        <v>-1.7023486606562188</v>
       </c>
       <c r="E50" t="n" s="149">
-        <v>0.1671073401221399</v>
+        <v>0.16710734012213857</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n" s="145">
-        <v>-0.5650708819059824</v>
+        <v>-0.5650708819059815</v>
       </c>
       <c r="B51" t="n" s="146">
         <v>-0.34524524553821845</v>
       </c>
       <c r="C51" t="n" s="147">
-        <v>1.3883195143642193</v>
+        <v>1.3883195143642202</v>
       </c>
       <c r="D51" t="n" s="148">
-        <v>0.2976513393437825</v>
+        <v>0.2976513393437812</v>
       </c>
       <c r="E51" t="n" s="149">
-        <v>-0.832892659877861</v>
+        <v>-0.8328926598778614</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n" s="145">
-        <v>1.2036183899038337</v>
+        <v>1.2036183899038342</v>
       </c>
       <c r="B52" t="n" s="146">
-        <v>1.442777923522594</v>
+        <v>1.4427779235225935</v>
       </c>
       <c r="C52" t="n" s="147">
-        <v>-1.850043701365311</v>
+        <v>-1.8500437013653102</v>
       </c>
       <c r="D52" t="n" s="148">
         <v>-1.957106328045572</v>
       </c>
       <c r="E52" t="n" s="149">
-        <v>0.8835070216500882</v>
+        <v>0.8835070216500887</v>
       </c>
     </row>
     <row r="53">
@@ -3097,50 +3097,50 @@
         <v>0.6263641728265918</v>
       </c>
       <c r="B53" t="n" s="146">
-        <v>-0.14164788021071395</v>
+        <v>-0.1416478802107144</v>
       </c>
       <c r="C53" t="n" s="147">
-        <v>0.5767631354705842</v>
+        <v>0.5767631354705851</v>
       </c>
       <c r="D53" t="n" s="148">
-        <v>-1.519945980872993</v>
+        <v>-1.5199459808729934</v>
       </c>
       <c r="E53" t="n" s="149">
-        <v>0.3407089535502248</v>
+        <v>0.34070895355022435</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n" s="145">
-        <v>0.3054107380814719</v>
+        <v>0.30541073808147257</v>
       </c>
       <c r="B54" t="n" s="146">
-        <v>-0.5730107989099975</v>
+        <v>-0.5730107989099977</v>
       </c>
       <c r="C54" t="n" s="147">
-        <v>-0.7243749266719828</v>
+        <v>-0.7243749266719821</v>
       </c>
       <c r="D54" t="n" s="148">
-        <v>-0.7870301897955321</v>
+        <v>-0.7870301897955323</v>
       </c>
       <c r="E54" t="n" s="149">
-        <v>1.1106225855501226</v>
+        <v>1.110622585550122</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n" s="145">
-        <v>1.3142797361854859</v>
+        <v>1.314279736185485</v>
       </c>
       <c r="B55" t="n" s="146">
-        <v>0.48859871387444453</v>
+        <v>0.48859871387444276</v>
       </c>
       <c r="C55" t="n" s="147">
         <v>0.2752580889473748</v>
       </c>
       <c r="D55" t="n" s="148">
-        <v>0.1968939946509538</v>
+        <v>0.19689399465095558</v>
       </c>
       <c r="E55" t="n" s="149">
-        <v>-1.9220682941355758</v>
+        <v>-1.9220682941355784</v>
       </c>
     </row>
     <row r="56">
@@ -3148,13 +3148,13 @@
         <v>-1.3736358271734086</v>
       </c>
       <c r="B56" t="n" s="146">
-        <v>-1.1416478802107144</v>
+        <v>-1.1416478802107135</v>
       </c>
       <c r="C56" t="n" s="147">
-        <v>0.5767631354705847</v>
+        <v>0.5767631354705851</v>
       </c>
       <c r="D56" t="n" s="148">
-        <v>0.48005401912700707</v>
+        <v>0.4800540191270075</v>
       </c>
       <c r="E56" t="n" s="149">
         <v>1.3407089535502243</v>
@@ -3162,33 +3162,33 @@
     </row>
     <row r="57">
       <c r="A57" t="n" s="145">
-        <v>-0.870968388615518</v>
+        <v>-0.8709683886155171</v>
       </c>
       <c r="B57" t="n" s="146">
         <v>-0.6929269391117225</v>
       </c>
       <c r="C57" t="n" s="147">
-        <v>-0.9108816701049092</v>
+        <v>-0.9108816701049083</v>
       </c>
       <c r="D57" t="n" s="148">
-        <v>2.009043380702317</v>
+        <v>2.0090433807023196</v>
       </c>
       <c r="E57" t="n" s="149">
-        <v>0.8879392672006938</v>
+        <v>0.8879392672006947</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n" s="145">
-        <v>0.4756479939783056</v>
+        <v>0.47564799397830604</v>
       </c>
       <c r="B58" t="n" s="146">
         <v>0.569257224170862</v>
       </c>
       <c r="C58" t="n" s="147">
-        <v>-0.5474317834606153</v>
+        <v>-0.5474317834606146</v>
       </c>
       <c r="D58" t="n" s="148">
-        <v>-0.5962026849885969</v>
+        <v>-0.5962026849885964</v>
       </c>
       <c r="E58" t="n" s="149">
         <v>-0.6766026053601646</v>
@@ -3196,19 +3196,19 @@
     </row>
     <row r="59">
       <c r="A59" t="n" s="145">
-        <v>2.4988287156595588</v>
+        <v>2.4988287156595597</v>
       </c>
       <c r="B59" t="n" s="146">
-        <v>-0.32863618963780805</v>
+        <v>-0.32863618963780716</v>
       </c>
       <c r="C59" t="n" s="147">
-        <v>-0.5394787048967444</v>
+        <v>-0.5394787048967453</v>
       </c>
       <c r="D59" t="n" s="148">
-        <v>0.3837866181761074</v>
+        <v>0.38378661817611004</v>
       </c>
       <c r="E59" t="n" s="149">
-        <v>-1.7325072081367532</v>
+        <v>-1.732507208136754</v>
       </c>
     </row>
     <row r="60">
@@ -3216,30 +3216,30 @@
         <v>-0.4321215455902472</v>
       </c>
       <c r="B60" t="n" s="146">
-        <v>0.7507180868211085</v>
+        <v>0.7507180868211103</v>
       </c>
       <c r="C60" t="n" s="147">
         <v>-0.4721441446447292</v>
       </c>
       <c r="D60" t="n" s="148">
-        <v>1.44880185593773</v>
+        <v>1.448801855937731</v>
       </c>
       <c r="E60" t="n" s="149">
-        <v>-0.6674059254802343</v>
+        <v>-0.6674059254802351</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n" s="145">
-        <v>1.2442024315079485</v>
+        <v>1.2442024315079503</v>
       </c>
       <c r="B61" t="n" s="146">
-        <v>-0.5501872708801487</v>
+        <v>-0.5501872708801492</v>
       </c>
       <c r="C61" t="n" s="147">
-        <v>0.20069239041911224</v>
+        <v>0.20069239041911402</v>
       </c>
       <c r="D61" t="n" s="148">
-        <v>-0.8840700603160756</v>
+        <v>-0.8840700603160747</v>
       </c>
       <c r="E61" t="n" s="149">
         <v>-0.006793554598854001</v>
@@ -3250,13 +3250,13 @@
         <v>-0.6857202638145141</v>
       </c>
       <c r="B62" t="n" s="146">
-        <v>-0.5114012861255564</v>
+        <v>-0.5114012861255572</v>
       </c>
       <c r="C62" t="n" s="147">
         <v>0.2752580889473748</v>
       </c>
       <c r="D62" t="n" s="148">
-        <v>1.196893994650953</v>
+        <v>1.1968939946509556</v>
       </c>
       <c r="E62" t="n" s="149">
         <v>0.07793170586442333</v>
@@ -3264,67 +3264,67 @@
     </row>
     <row r="63">
       <c r="A63" t="n" s="145">
-        <v>0.3793245304428048</v>
+        <v>0.3793245304428057</v>
       </c>
       <c r="B63" t="n" s="146">
-        <v>0.5574551796216642</v>
+        <v>0.5574551796216651</v>
       </c>
       <c r="C63" t="n" s="147">
-        <v>-0.659179677890485</v>
+        <v>-0.6591796778904868</v>
       </c>
       <c r="D63" t="n" s="148">
-        <v>0.26528800648366246</v>
+        <v>0.26528800648366335</v>
       </c>
       <c r="E63" t="n" s="149">
-        <v>0.1555177153993048</v>
+        <v>0.15551771539930392</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n" s="145">
-        <v>-0.41853914969772665</v>
+        <v>-0.4185391496977271</v>
       </c>
       <c r="B64" t="n" s="146">
-        <v>-0.2021824717194356</v>
+        <v>-0.20218247171943515</v>
       </c>
       <c r="C64" t="n" s="147">
-        <v>0.5311284376676082</v>
+        <v>0.5311284376676091</v>
       </c>
       <c r="D64" t="n" s="148">
-        <v>-0.5713157376774731</v>
+        <v>-0.5713157376774736</v>
       </c>
       <c r="E64" t="n" s="149">
-        <v>0.271112504922578</v>
+        <v>0.27111250492257843</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n" s="145">
-        <v>-1.2440894556651347</v>
+        <v>-1.244089455665133</v>
       </c>
       <c r="B65" t="n" s="146">
-        <v>1.9396854323724932</v>
+        <v>1.9396854323724924</v>
       </c>
       <c r="C65" t="n" s="147">
-        <v>-0.28476678344308315</v>
+        <v>-0.28476678344308404</v>
       </c>
       <c r="D65" t="n" s="148">
-        <v>0.6343663430050501</v>
+        <v>0.634366343005051</v>
       </c>
       <c r="E65" t="n" s="149">
-        <v>-0.48582438896411784</v>
+        <v>-0.4858243889641196</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n" s="145">
-        <v>-0.2142088827208697</v>
+        <v>-0.21420888272086946</v>
       </c>
       <c r="B66" t="n" s="146">
-        <v>-0.1740672868070221</v>
+        <v>-0.17406728680702188</v>
       </c>
       <c r="C66" t="n" s="147">
-        <v>-0.22418368869284167</v>
+        <v>-0.22418368869284055</v>
       </c>
       <c r="D66" t="n" s="148">
-        <v>-0.2453755420792314</v>
+        <v>-0.24537554207923118</v>
       </c>
       <c r="E66" t="n" s="149">
         <v>-0.2806895593842138</v>
@@ -3332,36 +3332,36 @@
     </row>
     <row r="67">
       <c r="A67" t="n" s="145">
-        <v>-0.5011712843404412</v>
+        <v>-0.5011712843404403</v>
       </c>
       <c r="B67" t="n" s="146">
-        <v>-0.32863618963780894</v>
+        <v>-0.32863618963780716</v>
       </c>
       <c r="C67" t="n" s="147">
-        <v>1.4605212951032565</v>
+        <v>1.4605212951032547</v>
       </c>
       <c r="D67" t="n" s="148">
-        <v>-0.6162133818238917</v>
+        <v>-0.61621338182389</v>
       </c>
       <c r="E67" t="n" s="149">
-        <v>0.2674927918632468</v>
+        <v>0.2674927918632459</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n" s="145">
-        <v>-0.6057472498465217</v>
+        <v>-0.6057472498465226</v>
       </c>
       <c r="B68" t="n" s="146">
-        <v>-0.3753064217062576</v>
+        <v>-0.37530642170625717</v>
       </c>
       <c r="C68" t="n" s="147">
-        <v>-0.6584252595961058</v>
+        <v>-0.658425259596104</v>
       </c>
       <c r="D68" t="n" s="148">
-        <v>0.23541518799166505</v>
+        <v>0.2354151879916655</v>
       </c>
       <c r="E68" t="n" s="149">
-        <v>1.074815279422722</v>
+        <v>1.0748152794227215</v>
       </c>
     </row>
     <row r="69">
@@ -3372,27 +3372,27 @@
         <v>-1.0358802487804786</v>
       </c>
       <c r="C69" t="n" s="147">
-        <v>-0.2798639731785437</v>
+        <v>-0.2798639731785433</v>
       </c>
       <c r="D69" t="n" s="148">
         <v>-0.37573189279862307</v>
       </c>
       <c r="E69" t="n" s="149">
-        <v>1.4743135397890605</v>
+        <v>1.4743135397890592</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n" s="145">
-        <v>-0.2142088827208697</v>
+        <v>-0.21420888272086946</v>
       </c>
       <c r="B70" t="n" s="146">
-        <v>-0.1740672868070221</v>
+        <v>-0.17406728680702188</v>
       </c>
       <c r="C70" t="n" s="147">
-        <v>-0.22418368869284167</v>
+        <v>-0.22418368869284055</v>
       </c>
       <c r="D70" t="n" s="148">
-        <v>-0.2453755420792314</v>
+        <v>-0.24537554207923118</v>
       </c>
       <c r="E70" t="n" s="149">
         <v>-0.2806895593842138</v>
@@ -3400,64 +3400,64 @@
     </row>
     <row r="71">
       <c r="A71" t="n" s="145">
-        <v>-0.8091402086802288</v>
+        <v>-0.8091402086802271</v>
       </c>
       <c r="B71" t="n" s="146">
-        <v>1.3599861881463884</v>
+        <v>1.359986188146391</v>
       </c>
       <c r="C71" t="n" s="147">
-        <v>1.154780661302091</v>
+        <v>1.1547806613020928</v>
       </c>
       <c r="D71" t="n" s="148">
-        <v>1.0844964043468241</v>
+        <v>1.084496404346825</v>
       </c>
       <c r="E71" t="n" s="149">
-        <v>-2.016499629303242</v>
+        <v>-2.016499629303243</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n" s="145">
-        <v>-0.5243520060216946</v>
+        <v>-0.524352006021694</v>
       </c>
       <c r="B72" t="n" s="146">
-        <v>-0.430742775829138</v>
+        <v>-0.4307427758291378</v>
       </c>
       <c r="C72" t="n" s="147">
-        <v>0.45256821653938495</v>
+        <v>0.4525682165393856</v>
       </c>
       <c r="D72" t="n" s="148">
         <v>-0.5962026849885962</v>
       </c>
       <c r="E72" t="n" s="149">
-        <v>0.3233973946398354</v>
+        <v>0.32339739463983586</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n" s="145">
-        <v>1.3942527501534787</v>
+        <v>1.3942527501534783</v>
       </c>
       <c r="B73" t="n" s="146">
-        <v>-1.3753064217062576</v>
+        <v>-1.3753064217062567</v>
       </c>
       <c r="C73" t="n" s="147">
-        <v>1.3415747404038938</v>
+        <v>1.3415747404038956</v>
       </c>
       <c r="D73" t="n" s="148">
-        <v>-1.7645848120083345</v>
+        <v>-1.764584812008334</v>
       </c>
       <c r="E73" t="n" s="149">
-        <v>0.07481527942272193</v>
+        <v>0.07481527942272237</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n" s="145">
-        <v>-0.1312810114943268</v>
+        <v>-0.13128101149432503</v>
       </c>
       <c r="B74" t="n" s="146">
         <v>1.0497140920681973</v>
       </c>
       <c r="C74" t="n" s="147">
-        <v>1.8297079874296163</v>
+        <v>1.8297079874296172</v>
       </c>
       <c r="D74" t="n" s="148">
         <v>-2.2473124286482404</v>
@@ -3468,16 +3468,16 @@
     </row>
     <row r="75">
       <c r="A75" t="n" s="145">
-        <v>-1.1312810114943268</v>
+        <v>-1.131281011494325</v>
       </c>
       <c r="B75" t="n" s="146">
-        <v>0.049714092068198656</v>
+        <v>0.049714092068197324</v>
       </c>
       <c r="C75" t="n" s="147">
-        <v>-0.17029201257038373</v>
+        <v>-0.17029201257038284</v>
       </c>
       <c r="D75" t="n" s="148">
-        <v>-0.24731242864823955</v>
+        <v>-0.24731242864824132</v>
       </c>
       <c r="E75" t="n" s="149">
         <v>1.6383309219082332</v>
@@ -3488,47 +3488,47 @@
         <v>-0.944548698768652</v>
       </c>
       <c r="B76" t="n" s="146">
-        <v>0.2473548268039525</v>
+        <v>0.24735482680395116</v>
       </c>
       <c r="C76" t="n" s="147">
-        <v>0.01460842771774562</v>
+        <v>0.014608427717746508</v>
       </c>
       <c r="D76" t="n" s="148">
-        <v>0.9346177087368455</v>
+        <v>0.9346177087368437</v>
       </c>
       <c r="E76" t="n" s="149">
-        <v>-0.18249608433961217</v>
+        <v>-0.18249608433961306</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n" s="145">
-        <v>0.5814608503022725</v>
+        <v>0.5814608503022729</v>
       </c>
       <c r="B77" t="n" s="146">
-        <v>-0.20218247171943649</v>
+        <v>-0.2021824717194356</v>
       </c>
       <c r="C77" t="n" s="147">
-        <v>-0.46887156233239313</v>
+        <v>-0.46887156233239136</v>
       </c>
       <c r="D77" t="n" s="148">
         <v>0.428684262322526</v>
       </c>
       <c r="E77" t="n" s="149">
-        <v>-0.7288874950774225</v>
+        <v>-0.728887495077422</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n" s="145">
-        <v>-0.2142088827208697</v>
+        <v>-0.21420888272086946</v>
       </c>
       <c r="B78" t="n" s="146">
-        <v>-0.1740672868070221</v>
+        <v>-0.17406728680702188</v>
       </c>
       <c r="C78" t="n" s="147">
-        <v>-0.22418368869284167</v>
+        <v>-0.22418368869284055</v>
       </c>
       <c r="D78" t="n" s="148">
-        <v>-0.2453755420792314</v>
+        <v>-0.24537554207923118</v>
       </c>
       <c r="E78" t="n" s="149">
         <v>-0.2806895593842138</v>
@@ -3536,19 +3536,19 @@
     </row>
     <row r="79">
       <c r="A79" t="n" s="145">
-        <v>1.2036183899038346</v>
+        <v>1.2036183899038337</v>
       </c>
       <c r="B79" t="n" s="146">
-        <v>0.44277792352259393</v>
+        <v>0.4427779235225935</v>
       </c>
       <c r="C79" t="n" s="147">
-        <v>-0.8500437013653106</v>
+        <v>-0.850043701365311</v>
       </c>
       <c r="D79" t="n" s="148">
-        <v>0.042893671954427504</v>
+        <v>0.04289367195442706</v>
       </c>
       <c r="E79" t="n" s="149">
-        <v>-1.116492978349911</v>
+        <v>-1.1164929783499118</v>
       </c>
     </row>
     <row r="80">
@@ -3556,16 +3556,16 @@
         <v>-0.944548698768652</v>
       </c>
       <c r="B80" t="n" s="146">
-        <v>0.2473548268039525</v>
+        <v>0.2473548268039507</v>
       </c>
       <c r="C80" t="n" s="147">
-        <v>0.01460842771774562</v>
+        <v>0.014608427717746064</v>
       </c>
       <c r="D80" t="n" s="148">
-        <v>-0.06538229126315453</v>
+        <v>-0.06538229126315542</v>
       </c>
       <c r="E80" t="n" s="149">
-        <v>0.8175039156603878</v>
+        <v>0.8175039156603869</v>
       </c>
     </row>
     <row r="81">
@@ -3573,13 +3573,13 @@
         <v>0.055451301231348005</v>
       </c>
       <c r="B81" t="n" s="146">
-        <v>0.2473548268039525</v>
+        <v>0.2473548268039507</v>
       </c>
       <c r="C81" t="n" s="147">
-        <v>0.014608427717746508</v>
+        <v>0.014608427717746952</v>
       </c>
       <c r="D81" t="n" s="148">
-        <v>-0.06538229126315453</v>
+        <v>-0.06538229126315542</v>
       </c>
       <c r="E81" t="n" s="149">
         <v>-0.18249608433961217</v>
@@ -3590,16 +3590,16 @@
         <v>0.9502301263378876</v>
       </c>
       <c r="B82" t="n" s="146">
-        <v>-0.875372417551433</v>
+        <v>-0.8753724175514341</v>
       </c>
       <c r="C82" t="n" s="147">
-        <v>-0.09159559694315478</v>
+        <v>-0.09159559694315345</v>
       </c>
       <c r="D82" t="n" s="148">
-        <v>-0.17833131566501503</v>
+        <v>-0.17833131566501592</v>
       </c>
       <c r="E82" t="n" s="149">
-        <v>-0.3162417444283805</v>
+        <v>-0.31624174442838093</v>
       </c>
     </row>
     <row r="83">
@@ -3607,50 +3607,50 @@
         <v>-0.24408945566513385</v>
       </c>
       <c r="B83" t="n" s="146">
-        <v>-0.06031456762750853</v>
+        <v>-0.06031456762750764</v>
       </c>
       <c r="C83" t="n" s="147">
-        <v>-0.28476678344308404</v>
+        <v>-0.2847667834430849</v>
       </c>
       <c r="D83" t="n" s="148">
         <v>0.6343663430050501</v>
       </c>
       <c r="E83" t="n" s="149">
-        <v>0.5141756110358822</v>
+        <v>0.5141756110358813</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n" s="145">
-        <v>-1.0497698736621124</v>
+        <v>-1.049769873662112</v>
       </c>
       <c r="B84" t="n" s="146">
-        <v>-0.8753724175514326</v>
+        <v>-0.8753724175514335</v>
       </c>
       <c r="C84" t="n" s="147">
-        <v>-1.0915955969431543</v>
+        <v>-1.091595596943153</v>
       </c>
       <c r="D84" t="n" s="148">
-        <v>1.8216686843349854</v>
+        <v>1.8216686843349836</v>
       </c>
       <c r="E84" t="n" s="149">
-        <v>0.68375825557162</v>
+        <v>0.6837582555716195</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n" s="145">
-        <v>-0.755797568492051</v>
+        <v>-0.7557975684920502</v>
       </c>
       <c r="B85" t="n" s="146">
-        <v>-1.5501872708801492</v>
+        <v>-1.5501872708801487</v>
       </c>
       <c r="C85" t="n" s="147">
-        <v>0.20069239041911313</v>
+        <v>0.20069239041911446</v>
       </c>
       <c r="D85" t="n" s="148">
-        <v>2.1159299396839253</v>
+        <v>2.115929939683925</v>
       </c>
       <c r="E85" t="n" s="149">
-        <v>-0.006793554598854001</v>
+        <v>-0.006793554598853113</v>
       </c>
     </row>
     <row r="86">
@@ -3658,13 +3658,13 @@
         <v>0.055451301231348005</v>
       </c>
       <c r="B86" t="n" s="146">
-        <v>0.2473548268039525</v>
+        <v>0.2473548268039507</v>
       </c>
       <c r="C86" t="n" s="147">
-        <v>0.014608427717746508</v>
+        <v>0.014608427717746952</v>
       </c>
       <c r="D86" t="n" s="148">
-        <v>-0.06538229126315453</v>
+        <v>-0.06538229126315542</v>
       </c>
       <c r="E86" t="n" s="149">
         <v>-0.18249608433961217</v>
@@ -3672,16 +3672,16 @@
     </row>
     <row r="87">
       <c r="A87" t="n" s="145">
-        <v>-0.5011712843404412</v>
+        <v>-0.5011712843404394</v>
       </c>
       <c r="B87" t="n" s="146">
-        <v>-0.32863618963780894</v>
+        <v>-0.3286361896378063</v>
       </c>
       <c r="C87" t="n" s="147">
-        <v>1.4605212951032565</v>
+        <v>1.4605212951032547</v>
       </c>
       <c r="D87" t="n" s="148">
-        <v>0.38378661817610826</v>
+        <v>0.3837866181761109</v>
       </c>
       <c r="E87" t="n" s="149">
         <v>-0.7325072081367532</v>
@@ -3689,33 +3689,33 @@
     </row>
     <row r="88">
       <c r="A88" t="n" s="145">
-        <v>0.13005998926540818</v>
+        <v>0.13005998926540885</v>
       </c>
       <c r="B88" t="n" s="146">
-        <v>0.2788680746058376</v>
+        <v>0.27886807460583674</v>
       </c>
       <c r="C88" t="n" s="147">
-        <v>0.09393727230654259</v>
+        <v>0.09393727230654325</v>
       </c>
       <c r="D88" t="n" s="148">
-        <v>-0.981569551381446</v>
+        <v>-0.9815695513814466</v>
       </c>
       <c r="E88" t="n" s="149">
-        <v>-0.10341552329015613</v>
+        <v>-0.10341552329015569</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n" s="145">
-        <v>0.24420243150794851</v>
+        <v>0.2442024315079503</v>
       </c>
       <c r="B89" t="n" s="146">
         <v>-0.5501872708801492</v>
       </c>
       <c r="C89" t="n" s="147">
-        <v>-0.7993076095808882</v>
+        <v>-0.799307609580886</v>
       </c>
       <c r="D89" t="n" s="148">
-        <v>1.1159299396839248</v>
+        <v>1.1159299396839253</v>
       </c>
       <c r="E89" t="n" s="149">
         <v>-0.006793554598854001</v>
@@ -3723,7 +3723,7 @@
     </row>
     <row r="90">
       <c r="A90" t="n" s="145">
-        <v>-0.5011712843404403</v>
+        <v>-0.5011712843404394</v>
       </c>
       <c r="B90" t="n" s="146">
         <v>-0.32863618963780805</v>
@@ -3732,10 +3732,10 @@
         <v>0.4605212951032547</v>
       </c>
       <c r="D90" t="n" s="148">
-        <v>0.3837866181761074</v>
+        <v>0.38378661817611004</v>
       </c>
       <c r="E90" t="n" s="149">
-        <v>0.26749279186324504</v>
+        <v>0.2674927918632468</v>
       </c>
     </row>
     <row r="91">
@@ -4050,28 +4050,28 @@
         <v>3.6862745098039214</v>
       </c>
       <c r="D6" t="n" s="195">
-        <v>-1.290560785954245</v>
+        <v>-1.2905607859542336</v>
       </c>
       <c r="E6" t="n" s="196">
-        <v>-11.925913216187354</v>
+        <v>-11.925913216187299</v>
       </c>
       <c r="F6" t="n" s="197">
-        <v>-14.008938019004228</v>
+        <v>-14.00893801900417</v>
       </c>
       <c r="G6" t="n" s="198">
-        <v>-14.62327381884666</v>
+        <v>-14.6232738188466</v>
       </c>
       <c r="H6" t="n" s="199">
-        <v>-15.779578554296032</v>
+        <v>-15.779578554295972</v>
       </c>
       <c r="I6" t="n" s="200">
-        <v>-14.421084485714271</v>
+        <v>-14.421084485714202</v>
       </c>
       <c r="J6" t="n" s="201">
-        <v>-12.351331227762907</v>
+        <v>-12.351331227762838</v>
       </c>
       <c r="K6" t="n" s="202">
-        <v>-9.033925501679715</v>
+        <v>-9.033925501679635</v>
       </c>
       <c r="L6" t="n" s="203">
         <v>1.0</v>
@@ -4106,28 +4106,28 @@
         <v>3.5098039215686274</v>
       </c>
       <c r="D7" t="n" s="195">
-        <v>-1.0612750120110712</v>
+        <v>-1.0612750120110603</v>
       </c>
       <c r="E7" t="n" s="196">
-        <v>-11.69662744224418</v>
+        <v>-11.696627442244125</v>
       </c>
       <c r="F7" t="n" s="197">
-        <v>-13.550366471117881</v>
+        <v>-13.550366471117822</v>
       </c>
       <c r="G7" t="n" s="198">
-        <v>-13.935416497017139</v>
+        <v>-13.93541649701708</v>
       </c>
       <c r="H7" t="n" s="199">
-        <v>-14.86243545852334</v>
+        <v>-14.862435458523278</v>
       </c>
       <c r="I7" t="n" s="200">
-        <v>-13.274655615998398</v>
+        <v>-13.274655615998336</v>
       </c>
       <c r="J7" t="n" s="201">
-        <v>-10.97561658410387</v>
+        <v>-10.975616584103797</v>
       </c>
       <c r="K7" t="n" s="202">
-        <v>-7.428925084077498</v>
+        <v>-7.428925084077422</v>
       </c>
       <c r="L7" t="n" s="203">
         <v>1.0</v>
@@ -4162,28 +4162,28 @@
         <v>3.7254901960784315</v>
       </c>
       <c r="D8" t="n" s="195">
-        <v>-1.3412895132174547</v>
+        <v>-1.3412895132174434</v>
       </c>
       <c r="E8" t="n" s="196">
-        <v>-11.976641943450563</v>
+        <v>-11.976641943450508</v>
       </c>
       <c r="F8" t="n" s="197">
-        <v>-14.110395473530648</v>
+        <v>-14.11039547353059</v>
       </c>
       <c r="G8" t="n" s="198">
-        <v>-14.77546000063629</v>
+        <v>-14.77546000063623</v>
       </c>
       <c r="H8" t="n" s="199">
-        <v>-15.982493463348876</v>
+        <v>-15.98249346334881</v>
       </c>
       <c r="I8" t="n" s="200">
-        <v>-14.67472812203032</v>
+        <v>-14.67472812203025</v>
       </c>
       <c r="J8" t="n" s="201">
-        <v>-12.655703591342169</v>
+        <v>-12.655703591342093</v>
       </c>
       <c r="K8" t="n" s="202">
-        <v>-9.389026592522184</v>
+        <v>-9.389026592522104</v>
       </c>
       <c r="L8" t="n" s="203">
         <v>1.0</v>
@@ -4218,28 +4218,28 @@
         <v>3.803921568627451</v>
       </c>
       <c r="D9" t="n" s="195">
-        <v>-1.4424302074724495</v>
+        <v>-1.4424302074724387</v>
       </c>
       <c r="E9" t="n" s="196">
-        <v>-12.077782637705559</v>
+        <v>-12.077782637705504</v>
       </c>
       <c r="F9" t="n" s="197">
-        <v>-14.312676862040638</v>
+        <v>-14.312676862040579</v>
       </c>
       <c r="G9" t="n" s="198">
-        <v>-15.078882083401274</v>
+        <v>-15.078882083401215</v>
       </c>
       <c r="H9" t="n" s="199">
-        <v>-16.387056240368853</v>
+        <v>-16.387056240368793</v>
       </c>
       <c r="I9" t="n" s="200">
-        <v>-15.18043159330529</v>
+        <v>-15.180431593305228</v>
       </c>
       <c r="J9" t="n" s="201">
-        <v>-13.26254775687214</v>
+        <v>-13.262547756872063</v>
       </c>
       <c r="K9" t="n" s="202">
-        <v>-10.097011452307147</v>
+        <v>-10.09701145230707</v>
       </c>
       <c r="L9" t="n" s="203">
         <v>1.0</v>
@@ -4274,28 +4274,28 @@
         <v>3.9215686274509802</v>
       </c>
       <c r="D10" t="n" s="195">
-        <v>-1.5941647272695405</v>
+        <v>-1.5941647272695307</v>
       </c>
       <c r="E10" t="n" s="196">
-        <v>-12.229517157502649</v>
+        <v>-12.229517157502595</v>
       </c>
       <c r="F10" t="n" s="197">
-        <v>-14.61614590163482</v>
+        <v>-14.616145901634765</v>
       </c>
       <c r="G10" t="n" s="198">
-        <v>-15.534085642792547</v>
+        <v>-15.534085642792492</v>
       </c>
       <c r="H10" t="n" s="199">
-        <v>-16.99399431955722</v>
+        <v>-16.99399431955716</v>
       </c>
       <c r="I10" t="n" s="200">
-        <v>-15.939104192290745</v>
+        <v>-15.939104192290687</v>
       </c>
       <c r="J10" t="n" s="201">
-        <v>-14.172954875654684</v>
+        <v>-14.172954875654614</v>
       </c>
       <c r="K10" t="n" s="202">
-        <v>-11.159153090886784</v>
+        <v>-11.159153090886715</v>
       </c>
       <c r="L10" t="n" s="203">
         <v>1.0</v>
@@ -4514,7 +4514,7 @@
         <v>31</v>
       </c>
       <c r="B24" t="n" s="253">
-        <v>-0.29171233803944224</v>
+        <v>-0.29171233803944024</v>
       </c>
     </row>
     <row r="25">
@@ -4522,7 +4522,7 @@
         <v>32</v>
       </c>
       <c r="B25" t="n" s="253">
-        <v>-0.0749032355879855</v>
+        <v>-0.07490323558798406</v>
       </c>
     </row>
     <row r="26">
@@ -4530,7 +4530,7 @@
         <v>33</v>
       </c>
       <c r="B26" t="n" s="253">
-        <v>-0.34280061424400105</v>
+        <v>-0.3428006142439972</v>
       </c>
     </row>
     <row r="27">
@@ -4538,7 +4538,7 @@
         <v>34</v>
       </c>
       <c r="B27" t="n" s="253">
-        <v>-0.44882220223732716</v>
+        <v>-0.4488222022373254</v>
       </c>
     </row>
     <row r="28">
@@ -4546,7 +4546,7 @@
         <v>35</v>
       </c>
       <c r="B28" t="n" s="253">
-        <v>-0.6143172534254722</v>
+        <v>-0.6143172534254706</v>
       </c>
     </row>
     <row r="29">
@@ -4598,25 +4598,25 @@
         <v>31</v>
       </c>
       <c r="B33" t="n" s="273">
-        <v>0.9671138891831781</v>
+        <v>0.9656733885125544</v>
       </c>
       <c r="C33" t="n" s="274">
-        <v>-0.09099795014767882</v>
+        <v>-0.10767736850795015</v>
       </c>
       <c r="D33" t="n" s="275">
-        <v>0.9274942198452398</v>
+        <v>0.9142516224314327</v>
       </c>
       <c r="E33" t="n" s="276">
         <v>1.0</v>
       </c>
       <c r="F33" t="n" s="277">
-        <v>0.9763295184474029</v>
+        <v>0.9665129522003219</v>
       </c>
       <c r="G33" t="n" s="278">
-        <v>-0.07620044202141216</v>
+        <v>-0.12742793962608534</v>
       </c>
       <c r="H33" t="n" s="279">
-        <v>0.9392596310313256</v>
+        <v>0.8986017038645367</v>
       </c>
       <c r="I33" t="n" s="280">
         <v>1.0</v>
@@ -4627,25 +4627,25 @@
         <v>32</v>
       </c>
       <c r="B34" t="n" s="273">
-        <v>0.7664355098464104</v>
+        <v>0.8012896342158101</v>
       </c>
       <c r="C34" t="n" s="274">
-        <v>-1.0359792543138695</v>
+        <v>-0.8528933072355424</v>
       </c>
       <c r="D34" t="n" s="275">
-        <v>0.3002118210435647</v>
+        <v>0.3937184735135513</v>
       </c>
       <c r="E34" t="n" s="276">
         <v>1.0</v>
       </c>
       <c r="F34" t="n" s="277">
-        <v>0.7976913903735041</v>
+        <v>0.8333055159260492</v>
       </c>
       <c r="G34" t="n" s="278">
-        <v>-1.0264797970038195</v>
+        <v>-0.8262106396514954</v>
       </c>
       <c r="H34" t="n" s="279">
-        <v>0.30466548175720154</v>
+        <v>0.4086846137772223</v>
       </c>
       <c r="I34" t="n" s="280">
         <v>1.0</v>
@@ -4656,25 +4656,25 @@
         <v>33</v>
       </c>
       <c r="B35" t="n" s="273">
-        <v>0.7900992218974096</v>
+        <v>0.7896180178234551</v>
       </c>
       <c r="C35" t="n" s="274">
-        <v>-0.9525732732209503</v>
+        <v>-0.9424370684386</v>
       </c>
       <c r="D35" t="n" s="275">
-        <v>0.34080632421888035</v>
+        <v>0.3459689164906657</v>
       </c>
       <c r="E35" t="n" s="276">
         <v>1.0</v>
       </c>
       <c r="F35" t="n" s="277">
-        <v>0.8256847857522598</v>
+        <v>0.8263401420774039</v>
       </c>
       <c r="G35" t="n" s="278">
-        <v>-0.875695202731917</v>
+        <v>-0.8748039324308691</v>
       </c>
       <c r="H35" t="n" s="279">
-        <v>0.38119575400622935</v>
+        <v>0.38168059718042796</v>
       </c>
       <c r="I35" t="n" s="280">
         <v>1.0</v>
@@ -4685,28 +4685,28 @@
         <v>34</v>
       </c>
       <c r="B36" t="n" s="273">
-        <v>1.3625822262509124</v>
+        <v>1.3908643046321703</v>
       </c>
       <c r="C36" t="n" s="274">
-        <v>1.5165288097214866</v>
+        <v>1.6050953498709448</v>
       </c>
       <c r="D36" t="n" s="275">
-        <v>0.12938569117661755</v>
+        <v>0.10847282251068277</v>
       </c>
       <c r="E36" t="n" s="276">
-        <v>0.9056998382363228</v>
+        <v>0.7593097575747794</v>
       </c>
       <c r="F36" t="n" s="277">
-        <v>1.4213845792577826</v>
+        <v>1.4479451919207287</v>
       </c>
       <c r="G36" t="n" s="278">
-        <v>1.9004365111576846</v>
+        <v>2.0075792794232066</v>
       </c>
       <c r="H36" t="n" s="279">
-        <v>0.057375859311595515</v>
+        <v>0.04468801824929056</v>
       </c>
       <c r="I36" t="n" s="280">
-        <v>0.4016310151811686</v>
+        <v>0.3128161277450339</v>
       </c>
     </row>
     <row r="37">
@@ -4714,25 +4714,25 @@
         <v>35</v>
       </c>
       <c r="B37" t="n" s="273">
-        <v>0.9795882496791084</v>
+        <v>1.0094811519144242</v>
       </c>
       <c r="C37" t="n" s="274">
-        <v>-0.05180868291482261</v>
+        <v>0.06836291475259892</v>
       </c>
       <c r="D37" t="n" s="275">
-        <v>0.9586811368793526</v>
+        <v>0.9454967424778244</v>
       </c>
       <c r="E37" t="n" s="276">
         <v>1.0</v>
       </c>
       <c r="F37" t="n" s="277">
-        <v>0.9543596169498801</v>
+        <v>0.9655357138230932</v>
       </c>
       <c r="G37" t="n" s="278">
-        <v>-0.1894397498731145</v>
+        <v>-0.13452854495364533</v>
       </c>
       <c r="H37" t="n" s="279">
-        <v>0.8497481725646348</v>
+        <v>0.8929846406341148</v>
       </c>
       <c r="I37" t="n" s="280">
         <v>1.0</v>
@@ -4743,28 +4743,28 @@
         <v>58</v>
       </c>
       <c r="B38" t="n" s="273">
-        <v>1.062056239712155</v>
+        <v>1.1762013337827788</v>
       </c>
       <c r="C38" t="n" s="274">
-        <v>14.014455372042939</v>
+        <v>14.114549390473208</v>
       </c>
       <c r="D38" t="n" s="275">
-        <v>1.2717010894402588E-44</v>
+        <v>3.08984635736352E-45</v>
       </c>
       <c r="E38" t="n" s="276">
-        <v>1.1445309804962329E-43</v>
+        <v>2.780861721627168E-44</v>
       </c>
       <c r="F38" t="n" s="277">
-        <v>1.6265345062141163</v>
+        <v>1.6823571971006135</v>
       </c>
       <c r="G38" t="n" s="278">
-        <v>2.0690466148191864</v>
+        <v>2.2997633337281633</v>
       </c>
       <c r="H38" t="n" s="279">
-        <v>0.038541712610052424</v>
+        <v>0.021461631801951774</v>
       </c>
       <c r="I38" t="n" s="280">
-        <v>0.3083337008804194</v>
+        <v>0.1716930544156142</v>
       </c>
     </row>
     <row r="39">
@@ -4772,28 +4772,28 @@
         <v>59</v>
       </c>
       <c r="B39" t="n" s="273">
-        <v>1.4139622843394968</v>
+        <v>1.4638002546860975</v>
       </c>
       <c r="C39" t="n" s="274">
-        <v>0.8377658286290536</v>
+        <v>0.8563002278171895</v>
       </c>
       <c r="D39" t="n" s="275">
-        <v>0.40216223389284034</v>
+        <v>0.3918317352957372</v>
       </c>
       <c r="E39" t="n" s="276">
         <v>1.0</v>
       </c>
       <c r="F39" t="n" s="277">
-        <v>1.521970161390382</v>
+        <v>1.5418092277109725</v>
       </c>
       <c r="G39" t="n" s="278">
-        <v>3.631771497394388</v>
+        <v>3.7349951344017023</v>
       </c>
       <c r="H39" t="n" s="279">
-        <v>2.814823115464273E-4</v>
+        <v>1.8771881655206565E-4</v>
       </c>
       <c r="I39" t="n" s="280">
-        <v>0.002814823115464273</v>
+        <v>0.0018771881655206565</v>
       </c>
     </row>
     <row r="40">
@@ -4801,28 +4801,28 @@
         <v>60</v>
       </c>
       <c r="B40" t="n" s="273">
-        <v>1.076087277215562</v>
+        <v>1.138819888388052</v>
       </c>
       <c r="C40" t="n" s="274">
-        <v>0.7122152503164044</v>
+        <v>0.7948303831935107</v>
       </c>
       <c r="D40" t="n" s="275">
-        <v>0.4763314947621274</v>
+        <v>0.4267121745621787</v>
       </c>
       <c r="E40" t="n" s="276">
         <v>1.0</v>
       </c>
       <c r="F40" t="n" s="277">
-        <v>1.1159556704661209</v>
+        <v>1.169574583254323</v>
       </c>
       <c r="G40" t="n" s="278">
-        <v>0.9646806039582434</v>
+        <v>1.398731597068777</v>
       </c>
       <c r="H40" t="n" s="279">
-        <v>0.33470481310609534</v>
+        <v>0.16189348532166992</v>
       </c>
       <c r="I40" t="n" s="280">
-        <v>1.0</v>
+        <v>0.9713609119300195</v>
       </c>
     </row>
     <row r="41">
@@ -4830,28 +4830,28 @@
         <v>61</v>
       </c>
       <c r="B41" t="n" s="273">
-        <v>1.1668571653012678</v>
+        <v>1.2365028830822962</v>
       </c>
       <c r="C41" t="n" s="274">
-        <v>3.9494754658988165</v>
+        <v>4.827465198298894</v>
       </c>
       <c r="D41" t="n" s="275">
-        <v>7.832263784256856E-5</v>
+        <v>1.3828184421834192E-6</v>
       </c>
       <c r="E41" t="n" s="276">
-        <v>6.265811027405485E-4</v>
+        <v>1.1062547537467353E-5</v>
       </c>
       <c r="F41" t="n" s="277">
-        <v>1.2595825177034</v>
+        <v>1.3191036377168353</v>
       </c>
       <c r="G41" t="n" s="278">
-        <v>2.3664387524331634</v>
+        <v>2.9076142332168806</v>
       </c>
       <c r="H41" t="n" s="279">
-        <v>0.01796014569513867</v>
+        <v>0.003641973007338657</v>
       </c>
       <c r="I41" t="n" s="280">
-        <v>0.16164131125624803</v>
+        <v>0.032777757066047915</v>
       </c>
     </row>
     <row r="42">
@@ -4859,10 +4859,10 @@
         <v>62</v>
       </c>
       <c r="B42" t="n" s="273">
-        <v>1.026139269896127</v>
+        <v>1.0177832297768785</v>
       </c>
       <c r="C42" t="n" s="274">
-        <v>109.65635931339207</v>
+        <v>146.2561856625586</v>
       </c>
       <c r="D42" t="n" s="275">
         <v>0.0</v>
@@ -4871,16 +4871,16 @@
         <v>0.0</v>
       </c>
       <c r="F42" t="n" s="277">
-        <v>1.5381868251712103</v>
+        <v>1.5025447279154536</v>
       </c>
       <c r="G42" t="n" s="278">
-        <v>5.978410901492728</v>
+        <v>5.67171089400293</v>
       </c>
       <c r="H42" t="n" s="279">
-        <v>2.253247958492748E-9</v>
+        <v>1.4137841884225778E-8</v>
       </c>
       <c r="I42" t="n" s="280">
-        <v>2.478572754342023E-8</v>
+        <v>1.5551626072648355E-7</v>
       </c>
     </row>
     <row r="43">
@@ -4888,10 +4888,10 @@
         <v>63</v>
       </c>
       <c r="B43" t="n" s="273">
-        <v>0.9389805196729271</v>
+        <v>1.182215326648765</v>
       </c>
       <c r="C43" t="n" s="274">
-        <v>4902.4462785625765</v>
+        <v>7062.045531127058</v>
       </c>
       <c r="D43" t="n" s="275">
         <v>0.0</v>
@@ -4900,16 +4900,16 @@
         <v>0.0</v>
       </c>
       <c r="F43" t="n" s="277">
-        <v>1.1711665427166746</v>
+        <v>1.1773524617148359</v>
       </c>
       <c r="G43" t="n" s="278">
-        <v>1.2791059200248978</v>
+        <v>1.3162458169610907</v>
       </c>
       <c r="H43" t="n" s="279">
-        <v>0.20085975919580862</v>
+        <v>0.18809155027542304</v>
       </c>
       <c r="I43" t="n" s="280">
-        <v>1.0</v>
+        <v>0.9713609119300195</v>
       </c>
     </row>
     <row r="44">
@@ -6663,16 +6663,16 @@
         <v>1.0</v>
       </c>
       <c r="H2" t="n" s="306">
-        <v>0.09615468539480745</v>
+        <v>0.09615468539482597</v>
       </c>
       <c r="I2" t="n" s="307">
-        <v>-0.588779801672537</v>
+        <v>-0.5887798016726171</v>
       </c>
       <c r="J2" t="n" s="308">
-        <v>0.09902091646960288</v>
+        <v>0.09902091646962186</v>
       </c>
       <c r="K2" t="n" s="309">
-        <v>-0.6014366540338807</v>
+        <v>-0.6014366540339591</v>
       </c>
     </row>
     <row r="3">
@@ -6698,16 +6698,16 @@
         <v>2.0</v>
       </c>
       <c r="H3" t="n" s="306">
-        <v>0.35903755864982445</v>
+        <v>0.35903755864982334</v>
       </c>
       <c r="I3" t="n" s="307">
-        <v>-1.4208668125469661</v>
+        <v>-1.4208668125469746</v>
       </c>
       <c r="J3" t="n" s="308">
-        <v>0.36260773322688844</v>
+        <v>0.3626077332268874</v>
       </c>
       <c r="K3" t="n" s="309">
-        <v>-1.4088848276675787</v>
+        <v>-1.4088848276675858</v>
       </c>
     </row>
     <row r="4">
@@ -6733,16 +6733,16 @@
         <v>3.0</v>
       </c>
       <c r="H4" t="n" s="306">
-        <v>0.35903755864982445</v>
+        <v>0.35903755864982334</v>
       </c>
       <c r="I4" t="n" s="307">
-        <v>-1.4208668125469661</v>
+        <v>-1.4208668125469746</v>
       </c>
       <c r="J4" t="n" s="308">
-        <v>0.36260773322688844</v>
+        <v>0.3626077332268874</v>
       </c>
       <c r="K4" t="n" s="309">
-        <v>-1.4088848276675787</v>
+        <v>-1.4088848276675858</v>
       </c>
     </row>
     <row r="5">
@@ -6768,13 +6768,13 @@
         <v>4.0</v>
       </c>
       <c r="H5" t="n" s="306">
-        <v>0.17765755576841213</v>
+        <v>0.17765755576841208</v>
       </c>
       <c r="I5" t="n" s="307">
-        <v>-2.274903638174137</v>
+        <v>-2.274903638174139</v>
       </c>
       <c r="J5" t="n" s="308">
-        <v>0.17714953038176212</v>
+        <v>0.1771495303817622</v>
       </c>
       <c r="K5" t="n" s="309">
         <v>-2.2779196730259654</v>
@@ -6803,16 +6803,16 @@
         <v>5.0</v>
       </c>
       <c r="H6" t="n" s="306">
-        <v>0.8127139418114471</v>
+        <v>0.8127139418114494</v>
       </c>
       <c r="I6" t="n" s="307">
-        <v>-0.07544870701797884</v>
+        <v>-0.07544870701797499</v>
       </c>
       <c r="J6" t="n" s="308">
-        <v>0.8256596701487826</v>
+        <v>0.8256596701487845</v>
       </c>
       <c r="K6" t="n" s="309">
-        <v>-0.05533377769596812</v>
+        <v>-0.05533377769596523</v>
       </c>
     </row>
     <row r="7">
@@ -6838,13 +6838,13 @@
         <v>6.0</v>
       </c>
       <c r="H7" t="n" s="306">
-        <v>0.17765755576841213</v>
+        <v>0.17765755576841208</v>
       </c>
       <c r="I7" t="n" s="307">
-        <v>-2.274903638174137</v>
+        <v>-2.274903638174139</v>
       </c>
       <c r="J7" t="n" s="308">
-        <v>0.17714953038176212</v>
+        <v>0.1771495303817622</v>
       </c>
       <c r="K7" t="n" s="309">
         <v>-2.2779196730259654</v>
@@ -6873,16 +6873,16 @@
         <v>7.0</v>
       </c>
       <c r="H8" t="n" s="306">
-        <v>0.4770640610021529</v>
+        <v>0.4770640610021536</v>
       </c>
       <c r="I8" t="n" s="307">
-        <v>-0.7549473081188645</v>
+        <v>-0.7549473081188627</v>
       </c>
       <c r="J8" t="n" s="308">
-        <v>0.48189486826651556</v>
+        <v>0.4818948682665162</v>
       </c>
       <c r="K8" t="n" s="309">
-        <v>-0.7478110113801009</v>
+        <v>-0.7478110113800996</v>
       </c>
     </row>
     <row r="9">
@@ -6908,16 +6908,16 @@
         <v>8.0</v>
       </c>
       <c r="H9" t="n" s="306">
-        <v>0.8087426905989558</v>
+        <v>0.8087426905989572</v>
       </c>
       <c r="I9" t="n" s="307">
-        <v>-0.10198677497843403</v>
+        <v>-0.10198677497843181</v>
       </c>
       <c r="J9" t="n" s="308">
-        <v>0.7935168242789754</v>
+        <v>0.7935168242789763</v>
       </c>
       <c r="K9" t="n" s="309">
-        <v>-0.13648040781187934</v>
+        <v>-0.1364804078118782</v>
       </c>
     </row>
     <row r="10">
@@ -6943,16 +6943,16 @@
         <v>9.0</v>
       </c>
       <c r="H10" t="n" s="306">
-        <v>0.21046843714921692</v>
+        <v>0.21046843714921754</v>
       </c>
       <c r="I10" t="n" s="307">
-        <v>-1.2893753875878247</v>
+        <v>-1.289375387587821</v>
       </c>
       <c r="J10" t="n" s="308">
-        <v>0.20701911381370453</v>
+        <v>0.20701911381370489</v>
       </c>
       <c r="K10" t="n" s="309">
-        <v>-1.3009588326818846</v>
+        <v>-1.3009588326818826</v>
       </c>
     </row>
     <row r="11">
@@ -6978,16 +6978,16 @@
         <v>10.0</v>
       </c>
       <c r="H11" t="n" s="306">
-        <v>0.08763663435992179</v>
+        <v>0.08763663435992151</v>
       </c>
       <c r="I11" t="n" s="307">
         <v>-2.791915330785618</v>
       </c>
       <c r="J11" t="n" s="308">
-        <v>0.09438747491907558</v>
+        <v>0.09438747491907533</v>
       </c>
       <c r="K11" t="n" s="309">
-        <v>-2.7747055846427333</v>
+        <v>-2.7747055846427324</v>
       </c>
     </row>
     <row r="12">
@@ -7013,16 +7013,16 @@
         <v>11.0</v>
       </c>
       <c r="H12" t="n" s="306">
-        <v>0.8087426905989558</v>
+        <v>0.8087426905989572</v>
       </c>
       <c r="I12" t="n" s="307">
-        <v>-0.10198677497843403</v>
+        <v>-0.10198677497843181</v>
       </c>
       <c r="J12" t="n" s="308">
-        <v>0.7935168242789754</v>
+        <v>0.7935168242789763</v>
       </c>
       <c r="K12" t="n" s="309">
-        <v>-0.13648040781187934</v>
+        <v>-0.1364804078118782</v>
       </c>
     </row>
     <row r="13">
@@ -7048,16 +7048,16 @@
         <v>12.0</v>
       </c>
       <c r="H13" t="n" s="306">
-        <v>0.6832111618028371</v>
+        <v>0.683211161802838</v>
       </c>
       <c r="I13" t="n" s="307">
-        <v>-0.3385812270841245</v>
+        <v>-0.3385812270841235</v>
       </c>
       <c r="J13" t="n" s="308">
-        <v>0.6694200320213739</v>
+        <v>0.6694200320213752</v>
       </c>
       <c r="K13" t="n" s="309">
-        <v>-0.3765058734988489</v>
+        <v>-0.37650587349884634</v>
       </c>
     </row>
     <row r="14">
@@ -7083,16 +7083,16 @@
         <v>13.0</v>
       </c>
       <c r="H14" t="n" s="306">
-        <v>2.056629404554837</v>
+        <v>2.056629404554838</v>
       </c>
       <c r="I14" t="n" s="307">
-        <v>1.8789226354050284</v>
+        <v>1.8789226354050297</v>
       </c>
       <c r="J14" t="n" s="308">
-        <v>2.062033341865042</v>
+        <v>2.0620333418650434</v>
       </c>
       <c r="K14" t="n" s="309">
-        <v>1.8873086572587143</v>
+        <v>1.8873086572587154</v>
       </c>
     </row>
     <row r="15">
@@ -7118,16 +7118,16 @@
         <v>14.0</v>
       </c>
       <c r="H15" t="n" s="306">
-        <v>0.6381754619941067</v>
+        <v>0.638175461994108</v>
       </c>
       <c r="I15" t="n" s="307">
-        <v>-0.5299104975046547</v>
+        <v>-0.5299104975046514</v>
       </c>
       <c r="J15" t="n" s="308">
-        <v>0.6228103311194749</v>
+        <v>0.6228103311194759</v>
       </c>
       <c r="K15" t="n" s="309">
-        <v>-0.5771552725849586</v>
+        <v>-0.5771552725849564</v>
       </c>
     </row>
     <row r="16">
@@ -7153,16 +7153,16 @@
         <v>15.0</v>
       </c>
       <c r="H16" t="n" s="306">
-        <v>0.8906906254269277</v>
+        <v>0.8906906254269294</v>
       </c>
       <c r="I16" t="n" s="307">
-        <v>0.11187306275706749</v>
+        <v>0.11187306275707065</v>
       </c>
       <c r="J16" t="n" s="308">
-        <v>0.9537665474746058</v>
+        <v>0.9537665474746082</v>
       </c>
       <c r="K16" t="n" s="309">
-        <v>0.19629487605965085</v>
+        <v>0.1962948760596548</v>
       </c>
     </row>
     <row r="17">
@@ -7188,16 +7188,16 @@
         <v>16.0</v>
       </c>
       <c r="H17" t="n" s="306">
-        <v>1.4292708915871764</v>
+        <v>1.4292708915871792</v>
       </c>
       <c r="I17" t="n" s="307">
-        <v>0.8250343097472007</v>
+        <v>0.8250343097472036</v>
       </c>
       <c r="J17" t="n" s="308">
-        <v>1.467668129551136</v>
+        <v>1.4676681295511393</v>
       </c>
       <c r="K17" t="n" s="309">
-        <v>0.8759319273164201</v>
+        <v>0.8759319273164229</v>
       </c>
     </row>
     <row r="18">
@@ -7223,16 +7223,16 @@
         <v>17.0</v>
       </c>
       <c r="H18" t="n" s="306">
-        <v>1.0841831369254364</v>
+        <v>1.0841831369254376</v>
       </c>
       <c r="I18" t="n" s="307">
-        <v>0.3343571236611709</v>
+        <v>0.3343571236611732</v>
       </c>
       <c r="J18" t="n" s="308">
-        <v>1.0689471487835653</v>
+        <v>1.0689471487835662</v>
       </c>
       <c r="K18" t="n" s="309">
-        <v>0.30838143140945096</v>
+        <v>0.30838143140945207</v>
       </c>
     </row>
     <row r="19">
@@ -7258,16 +7258,16 @@
         <v>18.0</v>
       </c>
       <c r="H19" t="n" s="306">
-        <v>1.6541158449371083</v>
+        <v>1.6541158449371132</v>
       </c>
       <c r="I19" t="n" s="307">
-        <v>1.1550726890733003</v>
+        <v>1.155072689073307</v>
       </c>
       <c r="J19" t="n" s="308">
-        <v>1.6658585324072201</v>
+        <v>1.6658585324072244</v>
       </c>
       <c r="K19" t="n" s="309">
-        <v>1.1714303813247673</v>
+        <v>1.1714303813247713</v>
       </c>
     </row>
     <row r="20">
@@ -7293,16 +7293,16 @@
         <v>19.0</v>
       </c>
       <c r="H20" t="n" s="306">
-        <v>0.7604918534464363</v>
+        <v>0.7604918534464385</v>
       </c>
       <c r="I20" t="n" s="307">
-        <v>-0.022737277025917102</v>
+        <v>-0.022737277025913327</v>
       </c>
       <c r="J20" t="n" s="308">
-        <v>0.7365234743461815</v>
+        <v>0.7365234743461829</v>
       </c>
       <c r="K20" t="n" s="309">
-        <v>-0.05642674690082633</v>
+        <v>-0.056426746900823666</v>
       </c>
     </row>
     <row r="21">
@@ -7328,16 +7328,16 @@
         <v>20.0</v>
       </c>
       <c r="H21" t="n" s="306">
-        <v>2.5945838259797567</v>
+        <v>2.5945838259797602</v>
       </c>
       <c r="I21" t="n" s="307">
-        <v>1.897692523478174</v>
+        <v>1.8976925234781774</v>
       </c>
       <c r="J21" t="n" s="308">
-        <v>2.6119101847991</v>
+        <v>2.6119101847991053</v>
       </c>
       <c r="K21" t="n" s="309">
-        <v>1.9170520425649114</v>
+        <v>1.9170520425649158</v>
       </c>
     </row>
     <row r="22">
@@ -7363,16 +7363,16 @@
         <v>21.0</v>
       </c>
       <c r="H22" t="n" s="306">
-        <v>0.8655691320586234</v>
+        <v>0.8655691320586223</v>
       </c>
       <c r="I22" t="n" s="307">
-        <v>-0.07950786943363838</v>
+        <v>-0.07950786943364183</v>
       </c>
       <c r="J22" t="n" s="308">
         <v>0.8572081525020507</v>
       </c>
       <c r="K22" t="n" s="309">
-        <v>-0.09681558043408495</v>
+        <v>-0.09681558043408586</v>
       </c>
     </row>
     <row r="23">
@@ -7398,16 +7398,16 @@
         <v>22.0</v>
       </c>
       <c r="H23" t="n" s="306">
-        <v>0.6242631940127625</v>
+        <v>0.6242631940127639</v>
       </c>
       <c r="I23" t="n" s="307">
-        <v>-0.36721619626523117</v>
+        <v>-0.3672161962652286</v>
       </c>
       <c r="J23" t="n" s="308">
-        <v>0.6302289954343766</v>
+        <v>0.6302289954343774</v>
       </c>
       <c r="K23" t="n" s="309">
-        <v>-0.36357556964338134</v>
+        <v>-0.36357556964338</v>
       </c>
     </row>
     <row r="24">
@@ -7433,16 +7433,16 @@
         <v>23.0</v>
       </c>
       <c r="H24" t="n" s="306">
-        <v>0.5632117550341731</v>
+        <v>0.5632117550341745</v>
       </c>
       <c r="I24" t="n" s="307">
-        <v>-0.6530028852867906</v>
+        <v>-0.6530028852867866</v>
       </c>
       <c r="J24" t="n" s="308">
-        <v>0.5625237311445535</v>
+        <v>0.5625237311445546</v>
       </c>
       <c r="K24" t="n" s="309">
-        <v>-0.658593062007372</v>
+        <v>-0.6585930620073684</v>
       </c>
     </row>
     <row r="25">
@@ -7468,16 +7468,16 @@
         <v>24.0</v>
       </c>
       <c r="H25" t="n" s="306">
-        <v>0.2304922032114672</v>
+        <v>0.2304922032114674</v>
       </c>
       <c r="I25" t="n" s="307">
-        <v>-1.8887108856201016</v>
+        <v>-1.8887108856201027</v>
       </c>
       <c r="J25" t="n" s="308">
-        <v>0.23547424233417755</v>
+        <v>0.2354742423341776</v>
       </c>
       <c r="K25" t="n" s="309">
-        <v>-1.8685475790208137</v>
+        <v>-1.8685475790208153</v>
       </c>
     </row>
     <row r="26">
@@ -7503,16 +7503,16 @@
         <v>25.0</v>
       </c>
       <c r="H26" t="n" s="306">
-        <v>0.1607359464039309</v>
+        <v>0.1607359464039312</v>
       </c>
       <c r="I26" t="n" s="307">
-        <v>-2.5039097679873783</v>
+        <v>-2.5039097679873743</v>
       </c>
       <c r="J26" t="n" s="308">
-        <v>0.1640743514180244</v>
+        <v>0.1640743514180247</v>
       </c>
       <c r="K26" t="n" s="309">
-        <v>-2.5081974573951125</v>
+        <v>-2.5081974573951085</v>
       </c>
     </row>
     <row r="27">
@@ -7538,16 +7538,16 @@
         <v>26.0</v>
       </c>
       <c r="H27" t="n" s="306">
-        <v>1.4384186403646684</v>
+        <v>1.4384186403646715</v>
       </c>
       <c r="I27" t="n" s="307">
-        <v>0.9003440865965203</v>
+        <v>0.9003440865965244</v>
       </c>
       <c r="J27" t="n" s="308">
-        <v>1.4482299891379053</v>
+        <v>1.448229989137907</v>
       </c>
       <c r="K27" t="n" s="309">
-        <v>0.9146951032456915</v>
+        <v>0.9146951032456941</v>
       </c>
     </row>
     <row r="28">
@@ -7573,16 +7573,16 @@
         <v>27.0</v>
       </c>
       <c r="H28" t="n" s="306">
-        <v>0.09332238442730402</v>
+        <v>0.0933223844273033</v>
       </c>
       <c r="I28" t="n" s="307">
-        <v>-0.5974304082495998</v>
+        <v>-0.5974304082495983</v>
       </c>
       <c r="J28" t="n" s="308">
-        <v>0.09591040838593833</v>
+        <v>0.09591040838593755</v>
       </c>
       <c r="K28" t="n" s="309">
-        <v>-0.609193150183108</v>
+        <v>-0.6091931501831069</v>
       </c>
     </row>
     <row r="29">
@@ -7608,16 +7608,16 @@
         <v>28.0</v>
       </c>
       <c r="H29" t="n" s="306">
-        <v>0.7864862538929416</v>
+        <v>0.7864862538929429</v>
       </c>
       <c r="I29" t="n" s="307">
-        <v>-0.12086652431218886</v>
+        <v>-0.12086652431218695</v>
       </c>
       <c r="J29" t="n" s="308">
-        <v>0.7835031192469357</v>
+        <v>0.7835031192469373</v>
       </c>
       <c r="K29" t="n" s="309">
-        <v>-0.12832209039976286</v>
+        <v>-0.12832209039975997</v>
       </c>
     </row>
     <row r="30">
@@ -7643,16 +7643,16 @@
         <v>29.0</v>
       </c>
       <c r="H30" t="n" s="306">
-        <v>0.3663918866169979</v>
+        <v>0.36639188661699756</v>
       </c>
       <c r="I30" t="n" s="307">
-        <v>-1.609012387482726</v>
+        <v>-1.609012387482727</v>
       </c>
       <c r="J30" t="n" s="308">
-        <v>0.3739754443538401</v>
+        <v>0.3739754443538397</v>
       </c>
       <c r="K30" t="n" s="309">
-        <v>-1.585830587695541</v>
+        <v>-1.585830587695542</v>
       </c>
     </row>
     <row r="31">
@@ -7678,16 +7678,16 @@
         <v>30.0</v>
       </c>
       <c r="H31" t="n" s="306">
-        <v>0.6936110866529974</v>
+        <v>0.6936110866529976</v>
       </c>
       <c r="I31" t="n" s="307">
-        <v>-0.42861413791067204</v>
+        <v>-0.4286141379106706</v>
       </c>
       <c r="J31" t="n" s="308">
-        <v>0.7071646877416593</v>
+        <v>0.7071646877416597</v>
       </c>
       <c r="K31" t="n" s="309">
-        <v>-0.40841924500494176</v>
+        <v>-0.40841924500494</v>
       </c>
     </row>
     <row r="32">
@@ -7713,16 +7713,16 @@
         <v>31.0</v>
       </c>
       <c r="H32" t="n" s="306">
-        <v>0.09332238442730402</v>
+        <v>0.0933223844273033</v>
       </c>
       <c r="I32" t="n" s="307">
-        <v>-0.5974304082495998</v>
+        <v>-0.5974304082495983</v>
       </c>
       <c r="J32" t="n" s="308">
-        <v>0.09591040838593833</v>
+        <v>0.09591040838593755</v>
       </c>
       <c r="K32" t="n" s="309">
-        <v>-0.609193150183108</v>
+        <v>-0.6091931501831069</v>
       </c>
     </row>
     <row r="33">
@@ -7748,16 +7748,16 @@
         <v>32.0</v>
       </c>
       <c r="H33" t="n" s="306">
-        <v>2.6826652815399594</v>
+        <v>2.6826652815399497</v>
       </c>
       <c r="I33" t="n" s="307">
-        <v>2.191441813024309</v>
+        <v>2.1914418130243054</v>
       </c>
       <c r="J33" t="n" s="308">
-        <v>2.576062648930393</v>
+        <v>2.5760626489303875</v>
       </c>
       <c r="K33" t="n" s="309">
-        <v>2.0994685300491778</v>
+        <v>2.099468530049177</v>
       </c>
     </row>
     <row r="34">
@@ -7783,16 +7783,16 @@
         <v>33.0</v>
       </c>
       <c r="H34" t="n" s="306">
-        <v>0.5105748856886287</v>
+        <v>0.5105748856886297</v>
       </c>
       <c r="I34" t="n" s="307">
-        <v>-0.4221965291307679</v>
+        <v>-0.42219652913076483</v>
       </c>
       <c r="J34" t="n" s="308">
-        <v>0.5074186147241176</v>
+        <v>0.5074186147241188</v>
       </c>
       <c r="K34" t="n" s="309">
-        <v>-0.42734319883716226</v>
+        <v>-0.4273431988371588</v>
       </c>
     </row>
     <row r="35">
@@ -7818,16 +7818,16 @@
         <v>34.0</v>
       </c>
       <c r="H35" t="n" s="306">
-        <v>1.586332593864989</v>
+        <v>1.586332593864991</v>
       </c>
       <c r="I35" t="n" s="307">
-        <v>1.19522266350414</v>
+        <v>1.1952226635041425</v>
       </c>
       <c r="J35" t="n" s="308">
-        <v>1.5798415261547176</v>
+        <v>1.5798415261547196</v>
       </c>
       <c r="K35" t="n" s="309">
-        <v>1.1886459834300085</v>
+        <v>1.1886459834300112</v>
       </c>
     </row>
     <row r="36">
@@ -7853,16 +7853,16 @@
         <v>35.0</v>
       </c>
       <c r="H36" t="n" s="306">
-        <v>2.6979506277747554</v>
+        <v>2.6979506277747594</v>
       </c>
       <c r="I36" t="n" s="307">
-        <v>1.7620331138313734</v>
+        <v>1.7620331138313752</v>
       </c>
       <c r="J36" t="n" s="308">
-        <v>2.673699860275819</v>
+        <v>2.6736998602758217</v>
       </c>
       <c r="K36" t="n" s="309">
-        <v>1.7454033522379473</v>
+        <v>1.7454033522379488</v>
       </c>
     </row>
     <row r="37">
@@ -7888,16 +7888,16 @@
         <v>36.0</v>
       </c>
       <c r="H37" t="n" s="306">
-        <v>1.1571568143291429</v>
+        <v>1.157156814329143</v>
       </c>
       <c r="I37" t="n" s="307">
-        <v>0.452105372404204</v>
+        <v>0.4521053724042049</v>
       </c>
       <c r="J37" t="n" s="308">
-        <v>1.1446211071953944</v>
+        <v>1.1446211071953951</v>
       </c>
       <c r="K37" t="n" s="309">
-        <v>0.4375862703000289</v>
+        <v>0.43758627030002983</v>
       </c>
     </row>
     <row r="38">
@@ -7923,16 +7923,16 @@
         <v>37.0</v>
       </c>
       <c r="H38" t="n" s="306">
-        <v>0.49574726223989574</v>
+        <v>0.49574726223989696</v>
       </c>
       <c r="I38" t="n" s="307">
-        <v>-0.5488942106066792</v>
+        <v>-0.5488942106066756</v>
       </c>
       <c r="J38" t="n" s="308">
-        <v>0.4886320514172793</v>
+        <v>0.48863205141728</v>
       </c>
       <c r="K38" t="n" s="309">
-        <v>-0.5666545108590295</v>
+        <v>-0.5666545108590271</v>
       </c>
     </row>
     <row r="39">
@@ -7958,16 +7958,16 @@
         <v>38.0</v>
       </c>
       <c r="H39" t="n" s="306">
-        <v>0.2412804007795437</v>
+        <v>0.24128040077954335</v>
       </c>
       <c r="I39" t="n" s="307">
-        <v>-2.0418183684280637</v>
+        <v>-2.041818368428064</v>
       </c>
       <c r="J39" t="n" s="308">
-        <v>0.24899358376308026</v>
+        <v>0.24899358376307995</v>
       </c>
       <c r="K39" t="n" s="309">
-        <v>-2.0250973997510853</v>
+        <v>-2.025097399751085</v>
       </c>
     </row>
     <row r="40">
@@ -7993,16 +7993,16 @@
         <v>39.0</v>
       </c>
       <c r="H40" t="n" s="306">
-        <v>0.09332238442730402</v>
+        <v>0.0933223844273033</v>
       </c>
       <c r="I40" t="n" s="307">
-        <v>-0.5974304082495998</v>
+        <v>-0.5974304082495983</v>
       </c>
       <c r="J40" t="n" s="308">
-        <v>0.09591040838593833</v>
+        <v>0.09591040838593755</v>
       </c>
       <c r="K40" t="n" s="309">
-        <v>-0.609193150183108</v>
+        <v>-0.6091931501831069</v>
       </c>
     </row>
     <row r="41">
@@ -8028,16 +8028,16 @@
         <v>40.0</v>
       </c>
       <c r="H41" t="n" s="306">
-        <v>0.6505914910768025</v>
+        <v>0.6505914910768029</v>
       </c>
       <c r="I41" t="n" s="307">
-        <v>-0.6877536458777592</v>
+        <v>-0.6877536458777578</v>
       </c>
       <c r="J41" t="n" s="308">
-        <v>0.6527444784938738</v>
+        <v>0.6527444784938743</v>
       </c>
       <c r="K41" t="n" s="309">
-        <v>-0.6825547407072551</v>
+        <v>-0.6825547407072536</v>
       </c>
     </row>
     <row r="42">
@@ -8063,16 +8063,16 @@
         <v>41.0</v>
       </c>
       <c r="H42" t="n" s="306">
-        <v>0.44195416936778315</v>
+        <v>0.44195416936778364</v>
       </c>
       <c r="I42" t="n" s="307">
-        <v>-0.6639649285753831</v>
+        <v>-0.6639649285753813</v>
       </c>
       <c r="J42" t="n" s="308">
-        <v>0.431361718635547</v>
+        <v>0.4313617186355476</v>
       </c>
       <c r="K42" t="n" s="309">
-        <v>-0.6910926822305343</v>
+        <v>-0.6910926822305321</v>
       </c>
     </row>
     <row r="43">
@@ -8098,16 +8098,16 @@
         <v>42.0</v>
       </c>
       <c r="H43" t="n" s="306">
-        <v>0.02405905947692356</v>
+        <v>0.024059059476923335</v>
       </c>
       <c r="I43" t="n" s="307">
-        <v>-2.494894227984063</v>
+        <v>-2.4948942279840636</v>
       </c>
       <c r="J43" t="n" s="308">
-        <v>0.025329763233242073</v>
+        <v>0.02532976323324182</v>
       </c>
       <c r="K43" t="n" s="309">
-        <v>-2.4839649545806997</v>
+        <v>-2.483964954580702</v>
       </c>
     </row>
     <row r="44">
@@ -8133,16 +8133,16 @@
         <v>43.0</v>
       </c>
       <c r="H44" t="n" s="306">
-        <v>0.45630312728354855</v>
+        <v>0.4563031272835487</v>
       </c>
       <c r="I44" t="n" s="307">
-        <v>-0.9009427059647868</v>
+        <v>-0.9009427059647852</v>
       </c>
       <c r="J44" t="n" s="308">
-        <v>0.4135367037063985</v>
+        <v>0.41353670370639867</v>
       </c>
       <c r="K44" t="n" s="309">
-        <v>-1.0413091757482071</v>
+        <v>-1.0413091757482051</v>
       </c>
     </row>
     <row r="45">
@@ -8168,13 +8168,13 @@
         <v>44.0</v>
       </c>
       <c r="H45" t="n" s="306">
-        <v>0.17765755576841213</v>
+        <v>0.17765755576841208</v>
       </c>
       <c r="I45" t="n" s="307">
-        <v>-2.274903638174137</v>
+        <v>-2.274903638174139</v>
       </c>
       <c r="J45" t="n" s="308">
-        <v>0.17714953038176212</v>
+        <v>0.1771495303817622</v>
       </c>
       <c r="K45" t="n" s="309">
         <v>-2.2779196730259654</v>
@@ -8203,16 +8203,16 @@
         <v>45.0</v>
       </c>
       <c r="H46" t="n" s="306">
-        <v>1.554322533590424</v>
+        <v>1.554322533590425</v>
       </c>
       <c r="I46" t="n" s="307">
-        <v>0.970466563019396</v>
+        <v>0.9704665630193965</v>
       </c>
       <c r="J46" t="n" s="308">
-        <v>1.573103996376888</v>
+        <v>1.5731039963768898</v>
       </c>
       <c r="K46" t="n" s="309">
-        <v>1.0012343401200534</v>
+        <v>1.001234340120055</v>
       </c>
     </row>
     <row r="47">
@@ -8238,16 +8238,16 @@
         <v>46.0</v>
       </c>
       <c r="H47" t="n" s="306">
-        <v>1.7553680491628652</v>
+        <v>1.755368049162869</v>
       </c>
       <c r="I47" t="n" s="307">
-        <v>1.1007648986580159</v>
+        <v>1.1007648986580194</v>
       </c>
       <c r="J47" t="n" s="308">
-        <v>1.7654905566765802</v>
+        <v>1.7654905566765817</v>
       </c>
       <c r="K47" t="n" s="309">
-        <v>1.1162750201812068</v>
+        <v>1.1162750201812088</v>
       </c>
     </row>
     <row r="48">
@@ -8273,16 +8273,16 @@
         <v>47.0</v>
       </c>
       <c r="H48" t="n" s="306">
-        <v>0.02405905947692356</v>
+        <v>0.024059059476923335</v>
       </c>
       <c r="I48" t="n" s="307">
-        <v>-2.494894227984063</v>
+        <v>-2.4948942279840636</v>
       </c>
       <c r="J48" t="n" s="308">
-        <v>0.025329763233242073</v>
+        <v>0.02532976323324182</v>
       </c>
       <c r="K48" t="n" s="309">
-        <v>-2.4839649545806997</v>
+        <v>-2.483964954580702</v>
       </c>
     </row>
     <row r="49">
@@ -8308,16 +8308,16 @@
         <v>48.0</v>
       </c>
       <c r="H49" t="n" s="306">
-        <v>0.8430904626991058</v>
+        <v>0.8430904626991076</v>
       </c>
       <c r="I49" t="n" s="307">
-        <v>-0.024051570983069037</v>
+        <v>-0.024051570983066123</v>
       </c>
       <c r="J49" t="n" s="308">
-        <v>0.8462846137169036</v>
+        <v>0.8462846137169058</v>
       </c>
       <c r="K49" t="n" s="309">
-        <v>-0.020527559741492812</v>
+        <v>-0.020527559741489426</v>
       </c>
     </row>
     <row r="50">
@@ -8343,16 +8343,16 @@
         <v>49.0</v>
       </c>
       <c r="H50" t="n" s="306">
-        <v>0.2757825166342834</v>
+        <v>0.27578251663428377</v>
       </c>
       <c r="I50" t="n" s="307">
-        <v>-1.271306020678566</v>
+        <v>-1.271306020678562</v>
       </c>
       <c r="J50" t="n" s="308">
-        <v>0.28408511081450755</v>
+        <v>0.2840851108145079</v>
       </c>
       <c r="K50" t="n" s="309">
-        <v>-1.26216262304786</v>
+        <v>-1.262162623047856</v>
       </c>
     </row>
     <row r="51">
@@ -8378,16 +8378,16 @@
         <v>50.0</v>
       </c>
       <c r="H51" t="n" s="306">
-        <v>0.5407855287748654</v>
+        <v>0.540785528774866</v>
       </c>
       <c r="I51" t="n" s="307">
-        <v>-0.5339139203731167</v>
+        <v>-0.5339139203731155</v>
       </c>
       <c r="J51" t="n" s="308">
-        <v>0.5311474743978015</v>
+        <v>0.5311474743978019</v>
       </c>
       <c r="K51" t="n" s="309">
-        <v>-0.5637601270709717</v>
+        <v>-0.5637601270709711</v>
       </c>
     </row>
     <row r="52">
@@ -8413,16 +8413,16 @@
         <v>51.0</v>
       </c>
       <c r="H52" t="n" s="306">
-        <v>0.21172367206550882</v>
+        <v>0.21172367206550935</v>
       </c>
       <c r="I52" t="n" s="307">
-        <v>-1.5844736454913197</v>
+        <v>-1.5844736454913175</v>
       </c>
       <c r="J52" t="n" s="308">
-        <v>0.20884077990668445</v>
+        <v>0.2088407799066851</v>
       </c>
       <c r="K52" t="n" s="309">
-        <v>-1.604583094571135</v>
+        <v>-1.6045830945711328</v>
       </c>
     </row>
   </sheetData>
@@ -8515,7 +8515,7 @@
         <v>7.0</v>
       </c>
       <c r="G2" t="n" s="322">
-        <v>1.0</v>
+        <v>10169.0</v>
       </c>
       <c r="H2" t="n" s="323">
         <v>5.0</v>
@@ -8527,13 +8527,13 @@
         <v>35.0</v>
       </c>
       <c r="K2" t="n" s="326">
-        <v>5.618788060280714</v>
+        <v>5.618788060280537</v>
       </c>
       <c r="L2" t="n" s="327">
-        <v>1.501226147628322</v>
+        <v>1.5012261476293798</v>
       </c>
       <c r="M2" t="n" s="328">
-        <v>0.8952033021465289</v>
+        <v>0.895203302146512</v>
       </c>
     </row>
     <row r="3">
@@ -8556,7 +8556,7 @@
         <v>6.0</v>
       </c>
       <c r="G3" t="n" s="322">
-        <v>2.0</v>
+        <v>10170.0</v>
       </c>
       <c r="H3" t="n" s="323">
         <v>5.0</v>
@@ -8568,13 +8568,13 @@
         <v>35.0</v>
       </c>
       <c r="K3" t="n" s="326">
-        <v>2.271211835651</v>
+        <v>2.2712118356509996</v>
       </c>
       <c r="L3" t="n" s="327">
-        <v>0.4983475463267364</v>
+        <v>0.4983475463267346</v>
       </c>
       <c r="M3" t="n" s="328">
-        <v>0.8952033021465289</v>
+        <v>0.895203302146512</v>
       </c>
     </row>
     <row r="4">
@@ -8597,7 +8597,7 @@
         <v>6.0</v>
       </c>
       <c r="G4" t="n" s="322">
-        <v>3.0</v>
+        <v>10171.0</v>
       </c>
       <c r="H4" t="n" s="323">
         <v>5.0</v>
@@ -8609,13 +8609,13 @@
         <v>35.0</v>
       </c>
       <c r="K4" t="n" s="326">
-        <v>2.271211835651</v>
+        <v>2.2712118356509996</v>
       </c>
       <c r="L4" t="n" s="327">
-        <v>0.4983475463267364</v>
+        <v>0.4983475463267346</v>
       </c>
       <c r="M4" t="n" s="328">
-        <v>0.8952033021465289</v>
+        <v>0.895203302146512</v>
       </c>
     </row>
     <row r="5">
@@ -8638,7 +8638,7 @@
         <v>6.0</v>
       </c>
       <c r="G5" t="n" s="322">
-        <v>4.0</v>
+        <v>10172.0</v>
       </c>
       <c r="H5" t="n" s="323">
         <v>5.0</v>
@@ -8650,13 +8650,13 @@
         <v>35.0</v>
       </c>
       <c r="K5" t="n" s="326">
-        <v>2.040392940522941</v>
+        <v>2.040392940522945</v>
       </c>
       <c r="L5" t="n" s="327">
-        <v>0.491004217532262</v>
+        <v>0.49100421753226026</v>
       </c>
       <c r="M5" t="n" s="328">
-        <v>0.8952033021465289</v>
+        <v>0.895203302146512</v>
       </c>
     </row>
     <row r="6">
@@ -8679,7 +8679,7 @@
         <v>4.0</v>
       </c>
       <c r="G6" t="n" s="322">
-        <v>5.0</v>
+        <v>10174.0</v>
       </c>
       <c r="H6" t="n" s="323">
         <v>5.0</v>
@@ -8691,13 +8691,13 @@
         <v>35.0</v>
       </c>
       <c r="K6" t="n" s="326">
-        <v>1.0815540259252736</v>
+        <v>1.0815540259252792</v>
       </c>
       <c r="L6" t="n" s="327">
         <v>0.5166727406450182</v>
       </c>
       <c r="M6" t="n" s="328">
-        <v>0.8952033021465289</v>
+        <v>0.895203302146512</v>
       </c>
     </row>
     <row r="7">
@@ -8720,7 +8720,7 @@
         <v>6.0</v>
       </c>
       <c r="G7" t="n" s="322">
-        <v>6.0</v>
+        <v>10175.0</v>
       </c>
       <c r="H7" t="n" s="323">
         <v>5.0</v>
@@ -8732,13 +8732,13 @@
         <v>35.0</v>
       </c>
       <c r="K7" t="n" s="326">
-        <v>2.040392940522941</v>
+        <v>2.040392940522945</v>
       </c>
       <c r="L7" t="n" s="327">
-        <v>0.491004217532262</v>
+        <v>0.49100421753226026</v>
       </c>
       <c r="M7" t="n" s="328">
-        <v>0.8952033021465289</v>
+        <v>0.895203302146512</v>
       </c>
     </row>
     <row r="8">
@@ -8761,7 +8761,7 @@
         <v>4.0</v>
       </c>
       <c r="G8" t="n" s="322">
-        <v>7.0</v>
+        <v>10176.0</v>
       </c>
       <c r="H8" t="n" s="323">
         <v>5.0</v>
@@ -8773,13 +8773,13 @@
         <v>35.0</v>
       </c>
       <c r="K8" t="n" s="326">
-        <v>1.0815540259252736</v>
+        <v>1.0815540259252792</v>
       </c>
       <c r="L8" t="n" s="327">
         <v>0.5166727406450182</v>
       </c>
       <c r="M8" t="n" s="328">
-        <v>0.8952033021465289</v>
+        <v>0.895203302146512</v>
       </c>
     </row>
     <row r="9">
@@ -8802,7 +8802,7 @@
         <v>4.0</v>
       </c>
       <c r="G9" t="n" s="322">
-        <v>8.0</v>
+        <v>10179.0</v>
       </c>
       <c r="H9" t="n" s="323">
         <v>5.0</v>
@@ -8814,13 +8814,13 @@
         <v>35.0</v>
       </c>
       <c r="K9" t="n" s="326">
-        <v>-0.3032274660394984</v>
+        <v>-0.3032274660394974</v>
       </c>
       <c r="L9" t="n" s="327">
-        <v>0.46103443890916557</v>
+        <v>0.46103443890916523</v>
       </c>
       <c r="M9" t="n" s="328">
-        <v>0.8952033021465289</v>
+        <v>0.895203302146512</v>
       </c>
     </row>
     <row r="10">
@@ -8843,7 +8843,7 @@
         <v>4.0</v>
       </c>
       <c r="G10" t="n" s="322">
-        <v>9.0</v>
+        <v>10181.0</v>
       </c>
       <c r="H10" t="n" s="323">
         <v>5.0</v>
@@ -8855,13 +8855,13 @@
         <v>35.0</v>
       </c>
       <c r="K10" t="n" s="326">
-        <v>0.4868788139651222</v>
+        <v>0.48687881396512395</v>
       </c>
       <c r="L10" t="n" s="327">
         <v>0.5284041765785104</v>
       </c>
       <c r="M10" t="n" s="328">
-        <v>0.8952033021465289</v>
+        <v>0.895203302146512</v>
       </c>
     </row>
     <row r="11">
@@ -8884,7 +8884,7 @@
         <v>3.0</v>
       </c>
       <c r="G11" t="n" s="322">
-        <v>10.0</v>
+        <v>10183.0</v>
       </c>
       <c r="H11" t="n" s="323">
         <v>5.0</v>
@@ -8899,10 +8899,10 @@
         <v>-1.5267181512734698</v>
       </c>
       <c r="L11" t="n" s="327">
-        <v>0.45392154233300286</v>
+        <v>0.4539215423330032</v>
       </c>
       <c r="M11" t="n" s="328">
-        <v>0.8952033021465289</v>
+        <v>0.895203302146512</v>
       </c>
     </row>
     <row r="12">
@@ -8925,7 +8925,7 @@
         <v>4.0</v>
       </c>
       <c r="G12" t="n" s="322">
-        <v>11.0</v>
+        <v>10184.0</v>
       </c>
       <c r="H12" t="n" s="323">
         <v>5.0</v>
@@ -8937,13 +8937,13 @@
         <v>35.0</v>
       </c>
       <c r="K12" t="n" s="326">
-        <v>-0.3032274660394984</v>
+        <v>-0.3032274660394974</v>
       </c>
       <c r="L12" t="n" s="327">
-        <v>0.46103443890916557</v>
+        <v>0.46103443890916523</v>
       </c>
       <c r="M12" t="n" s="328">
-        <v>0.8952033021465289</v>
+        <v>0.895203302146512</v>
       </c>
     </row>
     <row r="13">
@@ -8966,7 +8966,7 @@
         <v>3.0</v>
       </c>
       <c r="G13" t="n" s="322">
-        <v>12.0</v>
+        <v>10185.0</v>
       </c>
       <c r="H13" t="n" s="323">
         <v>5.0</v>
@@ -8978,13 +8978,13 @@
         <v>35.0</v>
       </c>
       <c r="K13" t="n" s="326">
-        <v>-0.3032274660394984</v>
+        <v>-0.3032274660394974</v>
       </c>
       <c r="L13" t="n" s="327">
-        <v>0.46103443890916557</v>
+        <v>0.46103443890916523</v>
       </c>
       <c r="M13" t="n" s="328">
-        <v>0.8952033021465289</v>
+        <v>0.895203302146512</v>
       </c>
     </row>
     <row r="14">
@@ -9007,7 +9007,7 @@
         <v>4.0</v>
       </c>
       <c r="G14" t="n" s="322">
-        <v>13.0</v>
+        <v>10186.0</v>
       </c>
       <c r="H14" t="n" s="323">
         <v>5.0</v>
@@ -9019,13 +9019,13 @@
         <v>35.0</v>
       </c>
       <c r="K14" t="n" s="326">
-        <v>-1.0096041458520824</v>
+        <v>-1.0096041458520812</v>
       </c>
       <c r="L14" t="n" s="327">
-        <v>0.42130505773716803</v>
+        <v>0.42130505773716853</v>
       </c>
       <c r="M14" t="n" s="328">
-        <v>0.8952033021465289</v>
+        <v>0.895203302146512</v>
       </c>
     </row>
     <row r="15">
@@ -9048,7 +9048,7 @@
         <v>4.0</v>
       </c>
       <c r="G15" t="n" s="322">
-        <v>14.0</v>
+        <v>10188.0</v>
       </c>
       <c r="H15" t="n" s="323">
         <v>5.0</v>
@@ -9060,13 +9060,13 @@
         <v>35.0</v>
       </c>
       <c r="K15" t="n" s="326">
-        <v>-0.4995212771807906</v>
+        <v>-0.4995212771807888</v>
       </c>
       <c r="L15" t="n" s="327">
-        <v>0.4422722866549435</v>
+        <v>0.4422722866549438</v>
       </c>
       <c r="M15" t="n" s="328">
-        <v>0.8952033021465289</v>
+        <v>0.895203302146512</v>
       </c>
     </row>
     <row r="16">
@@ -9089,7 +9089,7 @@
         <v>3.0</v>
       </c>
       <c r="G16" t="n" s="322">
-        <v>15.0</v>
+        <v>10189.0</v>
       </c>
       <c r="H16" t="n" s="323">
         <v>5.0</v>
@@ -9101,13 +9101,13 @@
         <v>35.0</v>
       </c>
       <c r="K16" t="n" s="326">
-        <v>-2.2672414373031873</v>
+        <v>-2.2672414373031895</v>
       </c>
       <c r="L16" t="n" s="327">
-        <v>0.5881288710567268</v>
+        <v>0.5881288710567275</v>
       </c>
       <c r="M16" t="n" s="328">
-        <v>0.8952033021465289</v>
+        <v>0.895203302146512</v>
       </c>
     </row>
     <row r="17">
@@ -9130,7 +9130,7 @@
         <v>3.0</v>
       </c>
       <c r="G17" t="n" s="322">
-        <v>16.0</v>
+        <v>10190.0</v>
       </c>
       <c r="H17" t="n" s="323">
         <v>5.0</v>
@@ -9142,13 +9142,13 @@
         <v>35.0</v>
       </c>
       <c r="K17" t="n" s="326">
-        <v>1.3412340079221048</v>
+        <v>1.3412340079221095</v>
       </c>
       <c r="L17" t="n" s="327">
         <v>0.5038553678007937</v>
       </c>
       <c r="M17" t="n" s="328">
-        <v>0.8952033021465289</v>
+        <v>0.895203302146512</v>
       </c>
     </row>
     <row r="18">
@@ -9171,7 +9171,7 @@
         <v>5.0</v>
       </c>
       <c r="G18" t="n" s="322">
-        <v>17.0</v>
+        <v>10191.0</v>
       </c>
       <c r="H18" t="n" s="323">
         <v>5.0</v>
@@ -9183,13 +9183,13 @@
         <v>35.0</v>
       </c>
       <c r="K18" t="n" s="326">
-        <v>-0.4995212771807906</v>
+        <v>-0.4995212771807888</v>
       </c>
       <c r="L18" t="n" s="327">
-        <v>0.4422722866549435</v>
+        <v>0.4422722866549438</v>
       </c>
       <c r="M18" t="n" s="328">
-        <v>0.8952033021465289</v>
+        <v>0.895203302146512</v>
       </c>
     </row>
     <row r="19">
@@ -9212,7 +9212,7 @@
         <v>6.0</v>
       </c>
       <c r="G19" t="n" s="322">
-        <v>18.0</v>
+        <v>10192.0</v>
       </c>
       <c r="H19" t="n" s="323">
         <v>5.0</v>
@@ -9224,13 +9224,13 @@
         <v>35.0</v>
       </c>
       <c r="K19" t="n" s="326">
-        <v>1.5823203160182915</v>
+        <v>1.5823203160182966</v>
       </c>
       <c r="L19" t="n" s="327">
-        <v>0.4943639254802429</v>
+        <v>0.49436392548024116</v>
       </c>
       <c r="M19" t="n" s="328">
-        <v>0.8952033021465289</v>
+        <v>0.895203302146512</v>
       </c>
     </row>
     <row r="20">
@@ -9253,7 +9253,7 @@
         <v>1.0</v>
       </c>
       <c r="G20" t="n" s="322">
-        <v>19.0</v>
+        <v>10193.0</v>
       </c>
       <c r="H20" t="n" s="323">
         <v>5.0</v>
@@ -9265,13 +9265,13 @@
         <v>35.0</v>
       </c>
       <c r="K20" t="n" s="326">
-        <v>-2.6694482267439756</v>
+        <v>-2.669448226743978</v>
       </c>
       <c r="L20" t="n" s="327">
-        <v>0.6928373446236301</v>
+        <v>0.6928373446236307</v>
       </c>
       <c r="M20" t="n" s="328">
-        <v>0.8952033021465289</v>
+        <v>0.895203302146512</v>
       </c>
     </row>
     <row r="21">
@@ -9294,7 +9294,7 @@
         <v>3.0</v>
       </c>
       <c r="G21" t="n" s="322">
-        <v>20.0</v>
+        <v>10197.0</v>
       </c>
       <c r="H21" t="n" s="323">
         <v>5.0</v>
@@ -9306,13 +9306,13 @@
         <v>35.0</v>
       </c>
       <c r="K21" t="n" s="326">
-        <v>1.0815540259252736</v>
+        <v>1.0815540259252792</v>
       </c>
       <c r="L21" t="n" s="327">
         <v>0.5166727406450182</v>
       </c>
       <c r="M21" t="n" s="328">
-        <v>0.8952033021465289</v>
+        <v>0.895203302146512</v>
       </c>
     </row>
     <row r="22">
@@ -9335,7 +9335,7 @@
         <v>5.0</v>
       </c>
       <c r="G22" t="n" s="322">
-        <v>21.0</v>
+        <v>10198.0</v>
       </c>
       <c r="H22" t="n" s="323">
         <v>5.0</v>
@@ -9347,13 +9347,13 @@
         <v>35.0</v>
       </c>
       <c r="K22" t="n" s="326">
-        <v>2.271211835651</v>
+        <v>2.2712118356509996</v>
       </c>
       <c r="L22" t="n" s="327">
-        <v>0.4983475463267364</v>
+        <v>0.4983475463267346</v>
       </c>
       <c r="M22" t="n" s="328">
-        <v>0.8952033021465289</v>
+        <v>0.895203302146512</v>
       </c>
     </row>
     <row r="23">
@@ -9376,7 +9376,7 @@
         <v>4.0</v>
       </c>
       <c r="G23" t="n" s="322">
-        <v>22.0</v>
+        <v>10199.0</v>
       </c>
       <c r="H23" t="n" s="323">
         <v>5.0</v>
@@ -9388,13 +9388,13 @@
         <v>35.0</v>
       </c>
       <c r="K23" t="n" s="326">
-        <v>-0.07879877985683345</v>
+        <v>-0.07879877985683005</v>
       </c>
       <c r="L23" t="n" s="327">
-        <v>0.4853666251130743</v>
+        <v>0.48536662511307516</v>
       </c>
       <c r="M23" t="n" s="328">
-        <v>0.8952033021465289</v>
+        <v>0.895203302146512</v>
       </c>
     </row>
     <row r="24">
@@ -9417,7 +9417,7 @@
         <v>5.0</v>
       </c>
       <c r="G24" t="n" s="322">
-        <v>23.0</v>
+        <v>10200.0</v>
       </c>
       <c r="H24" t="n" s="323">
         <v>5.0</v>
@@ -9429,13 +9429,13 @@
         <v>35.0</v>
       </c>
       <c r="K24" t="n" s="326">
-        <v>1.3412340079221048</v>
+        <v>1.3412340079221095</v>
       </c>
       <c r="L24" t="n" s="327">
         <v>0.5038553678007937</v>
       </c>
       <c r="M24" t="n" s="328">
-        <v>0.8952033021465289</v>
+        <v>0.895203302146512</v>
       </c>
     </row>
     <row r="25">
@@ -9458,7 +9458,7 @@
         <v>6.0</v>
       </c>
       <c r="G25" t="n" s="322">
-        <v>24.0</v>
+        <v>10201.0</v>
       </c>
       <c r="H25" t="n" s="323">
         <v>5.0</v>
@@ -9470,13 +9470,13 @@
         <v>35.0</v>
       </c>
       <c r="K25" t="n" s="326">
-        <v>2.5124784539189267</v>
+        <v>2.512478453918931</v>
       </c>
       <c r="L25" t="n" s="327">
-        <v>0.512846070174853</v>
+        <v>0.512846070174855</v>
       </c>
       <c r="M25" t="n" s="328">
-        <v>0.8952033021465289</v>
+        <v>0.895203302146512</v>
       </c>
     </row>
     <row r="26">
@@ -9499,7 +9499,7 @@
         <v>3.0</v>
       </c>
       <c r="G26" t="n" s="322">
-        <v>25.0</v>
+        <v>10202.0</v>
       </c>
       <c r="H26" t="n" s="323">
         <v>5.0</v>
@@ -9511,13 +9511,13 @@
         <v>35.0</v>
       </c>
       <c r="K26" t="n" s="326">
-        <v>-1.344131814868888</v>
+        <v>-1.3441318148688886</v>
       </c>
       <c r="L26" t="n" s="327">
-        <v>0.43599712384665656</v>
+        <v>0.435997123846657</v>
       </c>
       <c r="M26" t="n" s="328">
-        <v>0.8952033021465289</v>
+        <v>0.895203302146512</v>
       </c>
     </row>
     <row r="27">
@@ -9540,7 +9540,7 @@
         <v>5.0</v>
       </c>
       <c r="G27" t="n" s="322">
-        <v>26.0</v>
+        <v>10203.0</v>
       </c>
       <c r="H27" t="n" s="323">
         <v>5.0</v>
@@ -9552,13 +9552,13 @@
         <v>35.0</v>
       </c>
       <c r="K27" t="n" s="326">
-        <v>2.040392940522941</v>
+        <v>2.040392940522945</v>
       </c>
       <c r="L27" t="n" s="327">
-        <v>0.491004217532262</v>
+        <v>0.49100421753226026</v>
       </c>
       <c r="M27" t="n" s="328">
-        <v>0.8952033021465289</v>
+        <v>0.895203302146512</v>
       </c>
     </row>
     <row r="28">
@@ -9581,7 +9581,7 @@
         <v>1.0</v>
       </c>
       <c r="G28" t="n" s="322">
-        <v>27.0</v>
+        <v>10204.0</v>
       </c>
       <c r="H28" t="n" s="323">
         <v>5.0</v>
@@ -9593,13 +9593,13 @@
         <v>35.0</v>
       </c>
       <c r="K28" t="n" s="326">
-        <v>-4.503453607642871</v>
+        <v>-4.503453607642872</v>
       </c>
       <c r="L28" t="n" s="327">
-        <v>1.5134375291834672</v>
+        <v>1.5134375291834659</v>
       </c>
       <c r="M28" t="n" s="328">
-        <v>0.8952033021465289</v>
+        <v>0.895203302146512</v>
       </c>
     </row>
     <row r="29">
@@ -9622,7 +9622,7 @@
         <v>5.0</v>
       </c>
       <c r="G29" t="n" s="322">
-        <v>28.0</v>
+        <v>10206.0</v>
       </c>
       <c r="H29" t="n" s="323">
         <v>5.0</v>
@@ -9634,13 +9634,13 @@
         <v>35.0</v>
       </c>
       <c r="K29" t="n" s="326">
-        <v>1.0815540259252736</v>
+        <v>1.0815540259252792</v>
       </c>
       <c r="L29" t="n" s="327">
         <v>0.5166727406450182</v>
       </c>
       <c r="M29" t="n" s="328">
-        <v>0.8952033021465289</v>
+        <v>0.895203302146512</v>
       </c>
     </row>
     <row r="30">
@@ -9663,7 +9663,7 @@
         <v>4.0</v>
       </c>
       <c r="G30" t="n" s="322">
-        <v>29.0</v>
+        <v>10208.0</v>
       </c>
       <c r="H30" t="n" s="323">
         <v>5.0</v>
@@ -9675,13 +9675,13 @@
         <v>35.0</v>
       </c>
       <c r="K30" t="n" s="326">
-        <v>-1.1738858124735656</v>
+        <v>-1.1738858124735654</v>
       </c>
       <c r="L30" t="n" s="327">
-        <v>0.425549568370221</v>
+        <v>0.42554956837022156</v>
       </c>
       <c r="M30" t="n" s="328">
-        <v>0.8952033021465289</v>
+        <v>0.895203302146512</v>
       </c>
     </row>
     <row r="31">
@@ -9704,7 +9704,7 @@
         <v>4.0</v>
       </c>
       <c r="G31" t="n" s="322">
-        <v>30.0</v>
+        <v>10209.0</v>
       </c>
       <c r="H31" t="n" s="323">
         <v>5.0</v>
@@ -9719,10 +9719,10 @@
         <v>-1.5267181512734698</v>
       </c>
       <c r="L31" t="n" s="327">
-        <v>0.45392154233300286</v>
+        <v>0.4539215423330032</v>
       </c>
       <c r="M31" t="n" s="328">
-        <v>0.8952033021465289</v>
+        <v>0.895203302146512</v>
       </c>
     </row>
     <row r="32">
@@ -9745,7 +9745,7 @@
         <v>1.0</v>
       </c>
       <c r="G32" t="n" s="322">
-        <v>31.0</v>
+        <v>10210.0</v>
       </c>
       <c r="H32" t="n" s="323">
         <v>5.0</v>
@@ -9757,13 +9757,13 @@
         <v>35.0</v>
       </c>
       <c r="K32" t="n" s="326">
-        <v>-4.503453607642871</v>
+        <v>-4.503453607642872</v>
       </c>
       <c r="L32" t="n" s="327">
-        <v>1.5134375291834672</v>
+        <v>1.5134375291834659</v>
       </c>
       <c r="M32" t="n" s="328">
-        <v>0.8952033021465289</v>
+        <v>0.895203302146512</v>
       </c>
     </row>
     <row r="33">
@@ -9786,7 +9786,7 @@
         <v>4.0</v>
       </c>
       <c r="G33" t="n" s="322">
-        <v>32.0</v>
+        <v>10213.0</v>
       </c>
       <c r="H33" t="n" s="323">
         <v>5.0</v>
@@ -9798,13 +9798,13 @@
         <v>35.0</v>
       </c>
       <c r="K33" t="n" s="326">
-        <v>2.7726928822585757</v>
+        <v>2.7726928822585686</v>
       </c>
       <c r="L33" t="n" s="327">
-        <v>0.5362777159786281</v>
+        <v>0.5362777159786302</v>
       </c>
       <c r="M33" t="n" s="328">
-        <v>0.8952033021465289</v>
+        <v>0.895203302146512</v>
       </c>
     </row>
     <row r="34">
@@ -9827,7 +9827,7 @@
         <v>2.0</v>
       </c>
       <c r="G34" t="n" s="322">
-        <v>33.0</v>
+        <v>10214.0</v>
       </c>
       <c r="H34" t="n" s="323">
         <v>5.0</v>
@@ -9839,13 +9839,13 @@
         <v>35.0</v>
       </c>
       <c r="K34" t="n" s="326">
-        <v>-2.6694482267439756</v>
+        <v>-2.669448226743978</v>
       </c>
       <c r="L34" t="n" s="327">
-        <v>0.6928373446236301</v>
+        <v>0.6928373446236307</v>
       </c>
       <c r="M34" t="n" s="328">
-        <v>0.8952033021465289</v>
+        <v>0.895203302146512</v>
       </c>
     </row>
     <row r="35">
@@ -9868,7 +9868,7 @@
         <v>3.0</v>
       </c>
       <c r="G35" t="n" s="322">
-        <v>34.0</v>
+        <v>10215.0</v>
       </c>
       <c r="H35" t="n" s="323">
         <v>5.0</v>
@@ -9880,13 +9880,13 @@
         <v>35.0</v>
       </c>
       <c r="K35" t="n" s="326">
-        <v>-1.1738858124735656</v>
+        <v>-1.1738858124735654</v>
       </c>
       <c r="L35" t="n" s="327">
-        <v>0.425549568370221</v>
+        <v>0.42554956837022156</v>
       </c>
       <c r="M35" t="n" s="328">
-        <v>0.8952033021465289</v>
+        <v>0.895203302146512</v>
       </c>
     </row>
     <row r="36">
@@ -9909,7 +9909,7 @@
         <v>4.0</v>
       </c>
       <c r="G36" t="n" s="322">
-        <v>35.0</v>
+        <v>10216.0</v>
       </c>
       <c r="H36" t="n" s="323">
         <v>5.0</v>
@@ -9921,13 +9921,13 @@
         <v>35.0</v>
       </c>
       <c r="K36" t="n" s="326">
-        <v>0.4868788139651222</v>
+        <v>0.48687881396512395</v>
       </c>
       <c r="L36" t="n" s="327">
         <v>0.5284041765785104</v>
       </c>
       <c r="M36" t="n" s="328">
-        <v>0.8952033021465289</v>
+        <v>0.895203302146512</v>
       </c>
     </row>
     <row r="37">
@@ -9950,7 +9950,7 @@
         <v>6.0</v>
       </c>
       <c r="G37" t="n" s="322">
-        <v>36.0</v>
+        <v>10217.0</v>
       </c>
       <c r="H37" t="n" s="323">
         <v>5.0</v>
@@ -9962,13 +9962,13 @@
         <v>35.0</v>
       </c>
       <c r="K37" t="n" s="326">
-        <v>0.4868788139651222</v>
+        <v>0.48687881396512395</v>
       </c>
       <c r="L37" t="n" s="327">
         <v>0.5284041765785104</v>
       </c>
       <c r="M37" t="n" s="328">
-        <v>0.8952033021465289</v>
+        <v>0.895203302146512</v>
       </c>
     </row>
     <row r="38">
@@ -9991,7 +9991,7 @@
         <v>4.0</v>
       </c>
       <c r="G38" t="n" s="322">
-        <v>37.0</v>
+        <v>10218.0</v>
       </c>
       <c r="H38" t="n" s="323">
         <v>5.0</v>
@@ -10003,13 +10003,13 @@
         <v>35.0</v>
       </c>
       <c r="K38" t="n" s="326">
-        <v>0.18503565572742786</v>
+        <v>0.18503565572743239</v>
       </c>
       <c r="L38" t="n" s="327">
-        <v>0.5113403341756941</v>
+        <v>0.511340334175695</v>
       </c>
       <c r="M38" t="n" s="328">
-        <v>0.8952033021465289</v>
+        <v>0.895203302146512</v>
       </c>
     </row>
     <row r="39">
@@ -10032,7 +10032,7 @@
         <v>2.0</v>
       </c>
       <c r="G39" t="n" s="322">
-        <v>38.0</v>
+        <v>10219.0</v>
       </c>
       <c r="H39" t="n" s="323">
         <v>5.0</v>
@@ -10044,13 +10044,13 @@
         <v>35.0</v>
       </c>
       <c r="K39" t="n" s="326">
-        <v>-1.344131814868888</v>
+        <v>-1.3441318148688886</v>
       </c>
       <c r="L39" t="n" s="327">
-        <v>0.43599712384665656</v>
+        <v>0.435997123846657</v>
       </c>
       <c r="M39" t="n" s="328">
-        <v>0.8952033021465289</v>
+        <v>0.895203302146512</v>
       </c>
     </row>
     <row r="40">
@@ -10073,7 +10073,7 @@
         <v>1.0</v>
       </c>
       <c r="G40" t="n" s="322">
-        <v>39.0</v>
+        <v>10220.0</v>
       </c>
       <c r="H40" t="n" s="323">
         <v>5.0</v>
@@ -10085,13 +10085,13 @@
         <v>35.0</v>
       </c>
       <c r="K40" t="n" s="326">
-        <v>-4.503453607642871</v>
+        <v>-4.503453607642872</v>
       </c>
       <c r="L40" t="n" s="327">
-        <v>1.5134375291834672</v>
+        <v>1.5134375291834659</v>
       </c>
       <c r="M40" t="n" s="328">
-        <v>0.8952033021465289</v>
+        <v>0.895203302146512</v>
       </c>
     </row>
     <row r="41">
@@ -10114,7 +10114,7 @@
         <v>2.0</v>
       </c>
       <c r="G41" t="n" s="322">
-        <v>40.0</v>
+        <v>10221.0</v>
       </c>
       <c r="H41" t="n" s="323">
         <v>5.0</v>
@@ -10126,13 +10126,13 @@
         <v>35.0</v>
       </c>
       <c r="K41" t="n" s="326">
-        <v>-1.0096041458520824</v>
+        <v>-1.0096041458520812</v>
       </c>
       <c r="L41" t="n" s="327">
-        <v>0.42130505773716803</v>
+        <v>0.42130505773716853</v>
       </c>
       <c r="M41" t="n" s="328">
-        <v>0.8952033021465289</v>
+        <v>0.895203302146512</v>
       </c>
     </row>
     <row r="42">
@@ -10155,7 +10155,7 @@
         <v>5.0</v>
       </c>
       <c r="G42" t="n" s="322">
-        <v>41.0</v>
+        <v>10223.0</v>
       </c>
       <c r="H42" t="n" s="323">
         <v>5.0</v>
@@ -10167,13 +10167,13 @@
         <v>35.0</v>
       </c>
       <c r="K42" t="n" s="326">
-        <v>0.18503565572742786</v>
+        <v>0.18503565572743239</v>
       </c>
       <c r="L42" t="n" s="327">
-        <v>0.5113403341756941</v>
+        <v>0.511340334175695</v>
       </c>
       <c r="M42" t="n" s="328">
-        <v>0.8952033021465289</v>
+        <v>0.895203302146512</v>
       </c>
     </row>
     <row r="43">
@@ -10196,7 +10196,7 @@
         <v>4.0</v>
       </c>
       <c r="G43" t="n" s="322">
-        <v>42.0</v>
+        <v>10224.0</v>
       </c>
       <c r="H43" t="n" s="323">
         <v>5.0</v>
@@ -10208,13 +10208,13 @@
         <v>35.0</v>
       </c>
       <c r="K43" t="n" s="326">
-        <v>0.18503565572742786</v>
+        <v>0.18503565572743239</v>
       </c>
       <c r="L43" t="n" s="327">
-        <v>0.5113403341756941</v>
+        <v>0.511340334175695</v>
       </c>
       <c r="M43" t="n" s="328">
-        <v>0.8952033021465289</v>
+        <v>0.895203302146512</v>
       </c>
     </row>
     <row r="44">
@@ -10237,7 +10237,7 @@
         <v>2.0</v>
       </c>
       <c r="G44" t="n" s="322">
-        <v>43.0</v>
+        <v>10226.0</v>
       </c>
       <c r="H44" t="n" s="323">
         <v>5.0</v>
@@ -10249,13 +10249,13 @@
         <v>35.0</v>
       </c>
       <c r="K44" t="n" s="326">
-        <v>-1.7305027689678223</v>
+        <v>-1.7305027689678227</v>
       </c>
       <c r="L44" t="n" s="327">
-        <v>0.48169872957605353</v>
+        <v>0.4816987295760539</v>
       </c>
       <c r="M44" t="n" s="328">
-        <v>0.8952033021465289</v>
+        <v>0.895203302146512</v>
       </c>
     </row>
     <row r="45">
@@ -10278,7 +10278,7 @@
         <v>6.0</v>
       </c>
       <c r="G45" t="n" s="322">
-        <v>44.0</v>
+        <v>10227.0</v>
       </c>
       <c r="H45" t="n" s="323">
         <v>5.0</v>
@@ -10290,13 +10290,13 @@
         <v>35.0</v>
       </c>
       <c r="K45" t="n" s="326">
-        <v>2.040392940522941</v>
+        <v>2.040392940522945</v>
       </c>
       <c r="L45" t="n" s="327">
-        <v>0.491004217532262</v>
+        <v>0.49100421753226026</v>
       </c>
       <c r="M45" t="n" s="328">
-        <v>0.8952033021465289</v>
+        <v>0.895203302146512</v>
       </c>
     </row>
     <row r="46">
@@ -10319,7 +10319,7 @@
         <v>3.0</v>
       </c>
       <c r="G46" t="n" s="322">
-        <v>45.0</v>
+        <v>10228.0</v>
       </c>
       <c r="H46" t="n" s="323">
         <v>5.0</v>
@@ -10331,13 +10331,13 @@
         <v>35.0</v>
       </c>
       <c r="K46" t="n" s="326">
-        <v>-1.7305027689678223</v>
+        <v>-1.7305027689678227</v>
       </c>
       <c r="L46" t="n" s="327">
-        <v>0.48169872957605353</v>
+        <v>0.4816987295760539</v>
       </c>
       <c r="M46" t="n" s="328">
-        <v>0.8952033021465289</v>
+        <v>0.895203302146512</v>
       </c>
     </row>
     <row r="47">
@@ -10360,7 +10360,7 @@
         <v>4.0</v>
       </c>
       <c r="G47" t="n" s="322">
-        <v>46.0</v>
+        <v>10230.0</v>
       </c>
       <c r="H47" t="n" s="323">
         <v>5.0</v>
@@ -10372,13 +10372,13 @@
         <v>35.0</v>
       </c>
       <c r="K47" t="n" s="326">
-        <v>-0.07879877985683345</v>
+        <v>-0.07879877985683005</v>
       </c>
       <c r="L47" t="n" s="327">
-        <v>0.4853666251130743</v>
+        <v>0.48536662511307516</v>
       </c>
       <c r="M47" t="n" s="328">
-        <v>0.8952033021465289</v>
+        <v>0.895203302146512</v>
       </c>
     </row>
     <row r="48">
@@ -10401,7 +10401,7 @@
         <v>4.0</v>
       </c>
       <c r="G48" t="n" s="322">
-        <v>47.0</v>
+        <v>10231.0</v>
       </c>
       <c r="H48" t="n" s="323">
         <v>5.0</v>
@@ -10413,13 +10413,13 @@
         <v>35.0</v>
       </c>
       <c r="K48" t="n" s="326">
-        <v>0.18503565572742786</v>
+        <v>0.18503565572743239</v>
       </c>
       <c r="L48" t="n" s="327">
-        <v>0.5113403341756941</v>
+        <v>0.511340334175695</v>
       </c>
       <c r="M48" t="n" s="328">
-        <v>0.8952033021465289</v>
+        <v>0.895203302146512</v>
       </c>
     </row>
     <row r="49">
@@ -10442,7 +10442,7 @@
         <v>4.0</v>
       </c>
       <c r="G49" t="n" s="322">
-        <v>48.0</v>
+        <v>10232.0</v>
       </c>
       <c r="H49" t="n" s="323">
         <v>5.0</v>
@@ -10454,13 +10454,13 @@
         <v>35.0</v>
       </c>
       <c r="K49" t="n" s="326">
-        <v>1.0815540259252736</v>
+        <v>1.0815540259252792</v>
       </c>
       <c r="L49" t="n" s="327">
         <v>0.5166727406450182</v>
       </c>
       <c r="M49" t="n" s="328">
-        <v>0.8952033021465289</v>
+        <v>0.895203302146512</v>
       </c>
     </row>
     <row r="50">
@@ -10483,7 +10483,7 @@
         <v>2.0</v>
       </c>
       <c r="G50" t="n" s="322">
-        <v>49.0</v>
+        <v>10234.0</v>
       </c>
       <c r="H50" t="n" s="323">
         <v>5.0</v>
@@ -10495,13 +10495,13 @@
         <v>35.0</v>
       </c>
       <c r="K50" t="n" s="326">
-        <v>-1.9693508401276727</v>
+        <v>-1.969350840127675</v>
       </c>
       <c r="L50" t="n" s="327">
-        <v>0.5236704574134714</v>
+        <v>0.523670457413472</v>
       </c>
       <c r="M50" t="n" s="328">
-        <v>0.8952033021465289</v>
+        <v>0.895203302146512</v>
       </c>
     </row>
     <row r="51">
@@ -10524,7 +10524,7 @@
         <v>4.0</v>
       </c>
       <c r="G51" t="n" s="322">
-        <v>50.0</v>
+        <v>10237.0</v>
       </c>
       <c r="H51" t="n" s="323">
         <v>5.0</v>
@@ -10536,13 +10536,13 @@
         <v>35.0</v>
       </c>
       <c r="K51" t="n" s="326">
-        <v>-0.07879877985683345</v>
+        <v>-0.07879877985683005</v>
       </c>
       <c r="L51" t="n" s="327">
-        <v>0.4853666251130743</v>
+        <v>0.48536662511307516</v>
       </c>
       <c r="M51" t="n" s="328">
-        <v>0.8952033021465289</v>
+        <v>0.895203302146512</v>
       </c>
     </row>
     <row r="52">
@@ -10565,7 +10565,7 @@
         <v>5.0</v>
       </c>
       <c r="G52" t="n" s="322">
-        <v>51.0</v>
+        <v>10238.0</v>
       </c>
       <c r="H52" t="n" s="323">
         <v>5.0</v>
@@ -10577,13 +10577,13 @@
         <v>35.0</v>
       </c>
       <c r="K52" t="n" s="326">
-        <v>1.0815540259252736</v>
+        <v>1.0815540259252792</v>
       </c>
       <c r="L52" t="n" s="327">
         <v>0.5166727406450182</v>
       </c>
       <c r="M52" t="n" s="328">
-        <v>0.8952033021465289</v>
+        <v>0.895203302146512</v>
       </c>
     </row>
   </sheetData>
